--- a/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-04T08:32:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-04T08:32:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-04T08:32:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-04T08:32:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-04T08:32:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>

--- a/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>

--- a/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU115"/>
+  <dimension ref="A1:AU116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
+          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-02T21:32:00.000Z</t>
+          <t>2024-07-04T10:52:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-e7a195146e0b4f84851f8eeef70f2fd7</t>
+          <t>https://www.notion.so/1-5395834b61a2463b847fc7d1d0bed8f6</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
+          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-02T16:37:00.000Z</t>
+          <t>2024-07-02T21:32:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-4e956c66c56d48e0a94e770f2a14fcd4</t>
+          <t>https://www.notion.so/2-e7a195146e0b4f84851f8eeef70f2fd7</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
+          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-01T14:25:00.000Z</t>
+          <t>2024-07-02T16:37:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-d916ccf252d34410be2c48b835b28092</t>
+          <t>https://www.notion.so/3-4e956c66c56d48e0a94e770f2a14fcd4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
+          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-30T15:05:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-fe45d7bd6e8d4e758b41a545ca37284b</t>
+          <t>https://www.notion.so/4-d916ccf252d34410be2c48b835b28092</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
+          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-06-29T09:35:00.000Z</t>
+          <t>2024-06-30T15:05:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-a782c44e6bd94f6f97910d56f4701144</t>
+          <t>https://www.notion.so/5-fe45d7bd6e8d4e758b41a545ca37284b</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
+          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-28T13:59:00.000Z</t>
+          <t>2024-06-29T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-e55892c67e5c4da388234b7400a2c426</t>
+          <t>https://www.notion.so/6-a782c44e6bd94f6f97910d56f4701144</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
+          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-27T16:20:00.000Z</t>
+          <t>2024-06-28T13:59:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-34c450788cfd465b9ac12c592f485be9</t>
+          <t>https://www.notion.so/7-e55892c67e5c4da388234b7400a2c426</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
+          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-27T13:13:00.000Z</t>
+          <t>2024-06-27T16:20:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-7d5475d81cf94a31817577a91b1d6821</t>
+          <t>https://www.notion.so/8-34c450788cfd465b9ac12c592f485be9</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
+          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-27T02:14:00.000Z</t>
+          <t>2024-06-27T13:13:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-392b89e1e026401083b114dc8548c520</t>
+          <t>https://www.notion.so/9-7d5475d81cf94a31817577a91b1d6821</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
+          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-06-25T09:26:00.000Z</t>
+          <t>2024-06-27T02:14:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-2f84e5ec07e44b24b0bcef90e98b33d5</t>
+          <t>https://www.notion.so/10-392b89e1e026401083b114dc8548c520</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
+          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-52f91de14fd84c838e4d679d7bdcc881</t>
+          <t>https://www.notion.so/11-2f84e5ec07e44b24b0bcef90e98b33d5</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
+          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-5a9e3a51f92846569ab98fd3f679bd7d</t>
+          <t>https://www.notion.so/12-52f91de14fd84c838e4d679d7bdcc881</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
+          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-4bc113ade36f4a5bb9c347f0d8fa9483</t>
+          <t>https://www.notion.so/13-5a9e3a51f92846569ab98fd3f679bd7d</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
+          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-59dbbce6813c4e81968ef894402a905c</t>
+          <t>https://www.notion.so/14-4bc113ade36f4a5bb9c347f0d8fa9483</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
+          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-5b3aba239f214c9590350a484156357e</t>
+          <t>https://www.notion.so/15-59dbbce6813c4e81968ef894402a905c</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
+          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-63f85e62af8c408e9daf5a9a6f2302fb</t>
+          <t>https://www.notion.so/16-5b3aba239f214c9590350a484156357e</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
+          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-737a5be1ee1541cb986e20a11a920b1e</t>
+          <t>https://www.notion.so/17-63f85e62af8c408e9daf5a9a6f2302fb</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
+          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
+          <t>https://www.notion.so/18-737a5be1ee1541cb986e20a11a920b1e</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
+          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-ccf9a743cf2c4219bac2a35ef088689b</t>
+          <t>https://www.notion.so/19-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
+          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-e773fe355b3f48a68cd11dafda818501</t>
+          <t>https://www.notion.so/20-ccf9a743cf2c4219bac2a35ef088689b</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
+          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-f9b3b690bbe040ebbd289e5d0336ff6f</t>
+          <t>https://www.notion.so/21-e773fe355b3f48a68cd11dafda818501</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
+          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-3e0543b78e4040d086c2d6e3118dbc93</t>
+          <t>https://www.notion.so/22-f9b3b690bbe040ebbd289e5d0336ff6f</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
+          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-53bb0ed6fdff4ac094552473d60b9dc6</t>
+          <t>https://www.notion.so/23-3e0543b78e4040d086c2d6e3118dbc93</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
+          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-63721adae1f9466b98495b6955c43a66</t>
+          <t>https://www.notion.so/24-53bb0ed6fdff4ac094552473d60b9dc6</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
+          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-772db640e3c54e5f89b5a8eb24f05039</t>
+          <t>https://www.notion.so/25-63721adae1f9466b98495b6955c43a66</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
+          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-78474f682686412fa1724b22a4f46958</t>
+          <t>https://www.notion.so/26-772db640e3c54e5f89b5a8eb24f05039</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
+          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-aa7b036608e44f5b9c2df00564f071b9</t>
+          <t>https://www.notion.so/27-78474f682686412fa1724b22a4f46958</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
+          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
+          <t>https://www.notion.so/28-aa7b036608e44f5b9c2df00564f071b9</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
+          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-b624a950bebd404f84634ddc4b83efa4</t>
+          <t>https://www.notion.so/29-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
+          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-e011e118d9a343749b4b6c5035d8d76a</t>
+          <t>https://www.notion.so/30-b624a950bebd404f84634ddc4b83efa4</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>06097b75-925b-488a-805c-597895a59893</t>
+          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-06097b75925b488a805c597895a59893</t>
+          <t>https://www.notion.so/31-e011e118d9a343749b4b6c5035d8d76a</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
+          <t>06097b75-925b-488a-805c-597895a59893</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
+          <t>https://www.notion.so/32-06097b75925b488a805c597895a59893</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
+          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-295a44f6ca9d4aa6865cbc97a63ed49f</t>
+          <t>https://www.notion.so/33-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
+          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-2fcd17a168234616b1f931622834ed19</t>
+          <t>https://www.notion.so/34-295a44f6ca9d4aa6865cbc97a63ed49f</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
+          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-39a4cf59c21f42c8ab12f22930737df2</t>
+          <t>https://www.notion.so/35-2fcd17a168234616b1f931622834ed19</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
+          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-5967f8063e81474fa3bb396088281bd4</t>
+          <t>https://www.notion.so/36-39a4cf59c21f42c8ab12f22930737df2</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
+          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-87f5309752064f52abc14594d8f162f0</t>
+          <t>https://www.notion.so/37-5967f8063e81474fa3bb396088281bd4</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
+          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-a9baec7a15a24b22b1a554d69ba8e6c2</t>
+          <t>https://www.notion.so/38-87f5309752064f52abc14594d8f162f0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
+          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-c745f5172a0044d2b498ac5356096152</t>
+          <t>https://www.notion.so/39-a9baec7a15a24b22b1a554d69ba8e6c2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
+          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-df0fa5a9e54848fba152011b467e6375</t>
+          <t>https://www.notion.so/40-c745f5172a0044d2b498ac5356096152</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
+          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-06a83616f52f4b9a8b70d067cdaf3202</t>
+          <t>https://www.notion.so/41-df0fa5a9e54848fba152011b467e6375</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
+          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-39cce7dee402481e8ccfda8e68d43492</t>
+          <t>https://www.notion.so/42-06a83616f52f4b9a8b70d067cdaf3202</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
+          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-4bd23e8c6cd246659e5aff1d4e62af08</t>
+          <t>https://www.notion.so/43-39cce7dee402481e8ccfda8e68d43492</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
+          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-527f68635d16482fac74c9ba4d5a9143</t>
+          <t>https://www.notion.so/44-4bd23e8c6cd246659e5aff1d4e62af08</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
+          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-645a16b0358146c883c9c261d6fde312</t>
+          <t>https://www.notion.so/45-527f68635d16482fac74c9ba4d5a9143</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
+          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-6680b008e43b478e96820998b28925ff</t>
+          <t>https://www.notion.so/46-645a16b0358146c883c9c261d6fde312</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
+          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-9699d5ff48ac4bac975f130433367def</t>
+          <t>https://www.notion.so/47-6680b008e43b478e96820998b28925ff</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
+          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-d13e1708092c4557a80eff62b2a24643</t>
+          <t>https://www.notion.so/48-9699d5ff48ac4bac975f130433367def</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
+          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-ddf1942de6a34109899e2a6536bce1f8</t>
+          <t>https://www.notion.so/49-d13e1708092c4557a80eff62b2a24643</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
+          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-e3fee4c2d7a54377bb9b81a4d961c61c</t>
+          <t>https://www.notion.so/50-ddf1942de6a34109899e2a6536bce1f8</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
+          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-2af88d4623c84d95b76fc87a630b9054</t>
+          <t>https://www.notion.so/51-e3fee4c2d7a54377bb9b81a4d961c61c</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
+          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-347ec2e381c54a778fc7a8ac05867d60</t>
+          <t>https://www.notion.so/52-2af88d4623c84d95b76fc87a630b9054</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
+          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-3c5774ced68547909dcc601b516ca4af</t>
+          <t>https://www.notion.so/53-347ec2e381c54a778fc7a8ac05867d60</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
+          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-547c0b51453c4aa1a58774b6d5dd3f1a</t>
+          <t>https://www.notion.so/54-3c5774ced68547909dcc601b516ca4af</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
+          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-930db29f743a4c618e74c3b56ba5a0ce</t>
+          <t>https://www.notion.so/55-547c0b51453c4aa1a58774b6d5dd3f1a</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
+          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-b15c39801fdb479b8be4aa3d4e13a66c</t>
+          <t>https://www.notion.so/56-930db29f743a4c618e74c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
+          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
+          <t>https://www.notion.so/57-b15c39801fdb479b8be4aa3d4e13a66c</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
+          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-e3633d8d20f44321a192f5afa6e8d91f</t>
+          <t>https://www.notion.so/58-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
+          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-ea36dd0d73ea45809067c8f83143240a</t>
+          <t>https://www.notion.so/59-e3633d8d20f44321a192f5afa6e8d91f</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
+          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-0f4adb1b8c0648359cdb3d9649a277a9</t>
+          <t>https://www.notion.so/60-ea36dd0d73ea45809067c8f83143240a</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
+          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-2c3594a4e2ab4ca197daf3925855ad80</t>
+          <t>https://www.notion.so/61-0f4adb1b8c0648359cdb3d9649a277a9</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
+          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
+          <t>https://www.notion.so/62-2c3594a4e2ab4ca197daf3925855ad80</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
+          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-37d5b2f22a054c3e9cb85c9cbe744b00</t>
+          <t>https://www.notion.so/63-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
+          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-3f7c917797684c1c888528b8612459c2</t>
+          <t>https://www.notion.so/64-37d5b2f22a054c3e9cb85c9cbe744b00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
+          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-58997e574bcb431397a8497e9d964980</t>
+          <t>https://www.notion.so/65-3f7c917797684c1c888528b8612459c2</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
+          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-779e4d4596fe43f3bec345641f68e7e4</t>
+          <t>https://www.notion.so/66-58997e574bcb431397a8497e9d964980</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
+          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-92b191de589d496595a70f646c4aac1f</t>
+          <t>https://www.notion.so/67-779e4d4596fe43f3bec345641f68e7e4</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
+          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-a19da822345e48159eaa47656dadde49</t>
+          <t>https://www.notion.so/68-92b191de589d496595a70f646c4aac1f</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
+          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-ccbc7c76c65e4060947ff54950f4d1f2</t>
+          <t>https://www.notion.so/69-a19da822345e48159eaa47656dadde49</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
+          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-f461d5da5dc040d09ee04c4a3e544174</t>
+          <t>https://www.notion.so/70-ccbc7c76c65e4060947ff54950f4d1f2</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
+          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-0e78e7b3ef2949468ad9c23a53b4da6c</t>
+          <t>https://www.notion.so/71-f461d5da5dc040d09ee04c4a3e544174</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
+          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-0efedcf0d5a1427b82ae489389a66625</t>
+          <t>https://www.notion.so/72-0e78e7b3ef2949468ad9c23a53b4da6c</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
+          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-2d3c378218cb4aaab48ee6efa4eb463f</t>
+          <t>https://www.notion.so/73-0efedcf0d5a1427b82ae489389a66625</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
+          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-43d05f1f3f764c35a56a0db0a57a724c</t>
+          <t>https://www.notion.so/74-2d3c378218cb4aaab48ee6efa4eb463f</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
+          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-777d34f48e434c2fb895bae3df7c2aad</t>
+          <t>https://www.notion.so/75-43d05f1f3f764c35a56a0db0a57a724c</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
+          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-b12efaee4b914d6e8a7f291ac8902ce0</t>
+          <t>https://www.notion.so/76-777d34f48e434c2fb895bae3df7c2aad</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
+          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-4ba858826e204c8cb5e0db4eb7dcb148</t>
+          <t>https://www.notion.so/77-b12efaee4b914d6e8a7f291ac8902ce0</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
+          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-516e5788099d4d99b4f94185ccacf13a</t>
+          <t>https://www.notion.so/78-4ba858826e204c8cb5e0db4eb7dcb148</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7068474c-c815-4317-af38-9720c3766e71</t>
+          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-7068474cc8154317af389720c3766e71</t>
+          <t>https://www.notion.so/79-516e5788099d4d99b4f94185ccacf13a</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
+          <t>7068474c-c815-4317-af38-9720c3766e71</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-73b1a91ae40b48a098c64b8294f410c3</t>
+          <t>https://www.notion.so/80-7068474cc8154317af389720c3766e71</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
+          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-97f9cfe2e9234ccfb370c71296ca2433</t>
+          <t>https://www.notion.so/81-73b1a91ae40b48a098c64b8294f410c3</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
+          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-a4751e1dad9c4affb14aa693c3cdb64d</t>
+          <t>https://www.notion.so/82-97f9cfe2e9234ccfb370c71296ca2433</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
+          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-552383fe1f304ccaa812498242b4a1ee</t>
+          <t>https://www.notion.so/83-a4751e1dad9c4affb14aa693c3cdb64d</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
+          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-624858dc7da1484dae4b00213655e72e</t>
+          <t>https://www.notion.so/84-552383fe1f304ccaa812498242b4a1ee</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
+          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-6642a940268347538a561f7597e51291</t>
+          <t>https://www.notion.so/85-624858dc7da1484dae4b00213655e72e</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17462,7 +17462,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1490000</v>
+        <v>0</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         </is>
       </c>
       <c r="W86" t="n">
-        <v>68510000</v>
+        <v>0</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         </is>
       </c>
       <c r="AA86" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         </is>
       </c>
       <c r="AD86" t="n">
-        <v>70000000</v>
+        <v>0</v>
       </c>
       <c r="AE86" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="AG86" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AH86" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="AJ86" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="AK86" t="inlineStr"/>
@@ -17567,7 +17567,7 @@
         </is>
       </c>
       <c r="AR86" t="n">
-        <v>73000000</v>
+        <v>0</v>
       </c>
       <c r="AS86" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
+          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-76a29ccbef984e5baca434051f89c562</t>
+          <t>https://www.notion.so/86-6642a940268347538a561f7597e51291</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17661,7 +17661,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>1490000</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         </is>
       </c>
       <c r="W87" t="n">
-        <v>15000000</v>
+        <v>68510000</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         </is>
       </c>
       <c r="AA87" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         </is>
       </c>
       <c r="AD87" t="n">
-        <v>15000000</v>
+        <v>70000000</v>
       </c>
       <c r="AE87" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         </is>
       </c>
       <c r="AG87" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH87" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="AJ87" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="AK87" t="inlineStr"/>
@@ -17766,7 +17766,7 @@
         </is>
       </c>
       <c r="AR87" t="n">
-        <v>20000000</v>
+        <v>73000000</v>
       </c>
       <c r="AS87" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
+          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-8f6acd2f75f84a60a7612f9c866fd510</t>
+          <t>https://www.notion.so/87-76a29ccbef984e5baca434051f89c562</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -17860,7 +17860,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>6750000</v>
+        <v>0</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         </is>
       </c>
       <c r="W88" t="n">
-        <v>13250000</v>
+        <v>15000000</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="AA88" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         </is>
       </c>
       <c r="AD88" t="n">
-        <v>19000000</v>
+        <v>15000000</v>
       </c>
       <c r="AE88" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         </is>
       </c>
       <c r="AG88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH88" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
       </c>
       <c r="AJ88" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="AK88" t="inlineStr"/>
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="AO88" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AP88" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         </is>
       </c>
       <c r="AR88" t="n">
-        <v>19000000</v>
+        <v>20000000</v>
       </c>
       <c r="AS88" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
+          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-a374f898aee846e7912646fcf92dad7e</t>
+          <t>https://www.notion.so/88-8f6acd2f75f84a60a7612f9c866fd510</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -18059,7 +18059,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1008000</v>
+        <v>6750000</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="W89" t="n">
-        <v>46492000</v>
+        <v>13250000</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         </is>
       </c>
       <c r="AA89" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         </is>
       </c>
       <c r="AD89" t="n">
-        <v>41000000</v>
+        <v>19000000</v>
       </c>
       <c r="AE89" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="AG89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH89" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
       </c>
       <c r="AJ89" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="AK89" t="inlineStr"/>
@@ -18151,7 +18151,7 @@
         </is>
       </c>
       <c r="AO89" t="n">
-        <v>6500000</v>
+        <v>1000000</v>
       </c>
       <c r="AP89" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         </is>
       </c>
       <c r="AR89" t="n">
-        <v>46000000</v>
+        <v>19000000</v>
       </c>
       <c r="AS89" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
+          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-c0bcf57b8e35442fa9aba57763c9e325</t>
+          <t>https://www.notion.so/89-a374f898aee846e7912646fcf92dad7e</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -18258,7 +18258,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>7610000</v>
+        <v>1008000</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         </is>
       </c>
       <c r="W90" t="n">
-        <v>15390000</v>
+        <v>46492000</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         </is>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="AD90" t="n">
-        <v>4500000</v>
+        <v>41000000</v>
       </c>
       <c r="AE90" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         </is>
       </c>
       <c r="AG90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH90" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
       </c>
       <c r="AJ90" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="AK90" t="inlineStr"/>
@@ -18350,7 +18350,7 @@
         </is>
       </c>
       <c r="AO90" t="n">
-        <v>18500000</v>
+        <v>6500000</v>
       </c>
       <c r="AP90" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         </is>
       </c>
       <c r="AR90" t="n">
-        <v>4500000</v>
+        <v>46000000</v>
       </c>
       <c r="AS90" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
+          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-ca7f48f1acec4d18bf23afe373dad0a1</t>
+          <t>https://www.notion.so/90-c0bcf57b8e35442fa9aba57763c9e325</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>7610000</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         </is>
       </c>
       <c r="W91" t="n">
-        <v>23000000</v>
+        <v>15390000</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         </is>
       </c>
       <c r="AA91" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AB91" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         </is>
       </c>
       <c r="AD91" t="n">
-        <v>23000000</v>
+        <v>4500000</v>
       </c>
       <c r="AE91" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         </is>
       </c>
       <c r="AG91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH91" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
       </c>
       <c r="AJ91" t="inlineStr">
         <is>
-          <t>2024-06-08</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="AK91" t="inlineStr"/>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="AO91" t="n">
-        <v>0</v>
+        <v>18500000</v>
       </c>
       <c r="AP91" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         </is>
       </c>
       <c r="AR91" t="n">
-        <v>26000000</v>
+        <v>4500000</v>
       </c>
       <c r="AS91" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
+          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-eeefb431b3e140238150ed014fff47f7</t>
+          <t>https://www.notion.so/91-ca7f48f1acec4d18bf23afe373dad0a1</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -18656,7 +18656,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>3010000</v>
+        <v>0</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         </is>
       </c>
       <c r="W92" t="n">
-        <v>60890000</v>
+        <v>23000000</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         </is>
       </c>
       <c r="AA92" t="n">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
       <c r="AB92" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         </is>
       </c>
       <c r="AD92" t="n">
-        <v>63900000</v>
+        <v>23000000</v>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         </is>
       </c>
       <c r="AG92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH92" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
       </c>
       <c r="AJ92" t="inlineStr">
         <is>
-          <t>2024-06-09</t>
+          <t>2024-06-08</t>
         </is>
       </c>
       <c r="AK92" t="inlineStr"/>
@@ -18761,7 +18761,7 @@
         </is>
       </c>
       <c r="AR92" t="n">
-        <v>72900000</v>
+        <v>26000000</v>
       </c>
       <c r="AS92" t="inlineStr">
         <is>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
+          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-f225669da15542ef8cdb31fd7a530ab8</t>
+          <t>https://www.notion.so/92-eeefb431b3e140238150ed014fff47f7</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -18855,7 +18855,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>4435000</v>
+        <v>3010000</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         </is>
       </c>
       <c r="W93" t="n">
-        <v>74565000</v>
+        <v>60890000</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         </is>
       </c>
       <c r="AA93" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         </is>
       </c>
       <c r="AD93" t="n">
-        <v>79000000</v>
+        <v>63900000</v>
       </c>
       <c r="AE93" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         </is>
       </c>
       <c r="AG93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH93" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
       </c>
       <c r="AJ93" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-09</t>
         </is>
       </c>
       <c r="AK93" t="inlineStr"/>
@@ -18960,7 +18960,7 @@
         </is>
       </c>
       <c r="AR93" t="n">
-        <v>79000000</v>
+        <v>72900000</v>
       </c>
       <c r="AS93" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
+          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-34b97b8c285b4d76bf9d1568f645d6c5</t>
+          <t>https://www.notion.so/93-f225669da15542ef8cdb31fd7a530ab8</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -19054,7 +19054,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>11640000</v>
+        <v>4435000</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="W94" t="n">
-        <v>18360000</v>
+        <v>74565000</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         </is>
       </c>
       <c r="AD94" t="n">
-        <v>30000000</v>
+        <v>79000000</v>
       </c>
       <c r="AE94" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         </is>
       </c>
       <c r="AG94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH94" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
       </c>
       <c r="AJ94" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="AK94" t="inlineStr"/>
@@ -19159,7 +19159,7 @@
         </is>
       </c>
       <c r="AR94" t="n">
-        <v>30000000</v>
+        <v>79000000</v>
       </c>
       <c r="AS94" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5a18478d-a522-45c2-9e43-032974690527</t>
+          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-5a18478da52245c29e43032974690527</t>
+          <t>https://www.notion.so/94-34b97b8c285b4d76bf9d1568f645d6c5</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -19253,7 +19253,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>5000000</v>
+        <v>11640000</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="W95" t="n">
-        <v>6300000</v>
+        <v>18360000</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="AD95" t="n">
-        <v>1300000</v>
+        <v>30000000</v>
       </c>
       <c r="AE95" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
       </c>
       <c r="AJ95" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="AK95" t="inlineStr"/>
@@ -19345,7 +19345,7 @@
         </is>
       </c>
       <c r="AO95" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="AP95" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         </is>
       </c>
       <c r="AR95" t="n">
-        <v>1300000</v>
+        <v>30000000</v>
       </c>
       <c r="AS95" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
+          <t>5a18478d-a522-45c2-9e43-032974690527</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-650732c65fad4de7a252544d44b48650</t>
+          <t>https://www.notion.so/95-5a18478da52245c29e43032974690527</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>16000000</v>
+        <v>5000000</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         </is>
       </c>
       <c r="W96" t="n">
-        <v>27000000</v>
+        <v>6300000</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         </is>
       </c>
       <c r="AD96" t="n">
-        <v>35000000</v>
+        <v>1300000</v>
       </c>
       <c r="AE96" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         </is>
       </c>
       <c r="AG96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH96" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
       </c>
       <c r="AJ96" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="AK96" t="inlineStr"/>
@@ -19544,7 +19544,7 @@
         </is>
       </c>
       <c r="AO96" t="n">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="AP96" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="AR96" t="n">
-        <v>35000000</v>
+        <v>1300000</v>
       </c>
       <c r="AS96" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
+          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-844ddd9f02b64958b1c89b53ce84cab6</t>
+          <t>https://www.notion.so/96-650732c65fad4de7a252544d44b48650</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -19651,7 +19651,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1000000</v>
+        <v>16000000</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         </is>
       </c>
       <c r="W97" t="n">
-        <v>18200000</v>
+        <v>27000000</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         </is>
       </c>
       <c r="AD97" t="n">
-        <v>9000000</v>
+        <v>35000000</v>
       </c>
       <c r="AE97" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
       </c>
       <c r="AJ97" t="inlineStr">
         <is>
-          <t>2024-06-15</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="AK97" t="inlineStr"/>
@@ -19743,7 +19743,7 @@
         </is>
       </c>
       <c r="AO97" t="n">
-        <v>10200000</v>
+        <v>8000000</v>
       </c>
       <c r="AP97" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="AR97" t="n">
-        <v>9000000</v>
+        <v>35000000</v>
       </c>
       <c r="AS97" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
+          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
+          <t>https://www.notion.so/97-844ddd9f02b64958b1c89b53ce84cab6</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -19850,7 +19850,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>5810000</v>
+        <v>1000000</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         </is>
       </c>
       <c r="W98" t="n">
-        <v>24690000</v>
+        <v>18200000</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         </is>
       </c>
       <c r="AD98" t="n">
-        <v>29500000</v>
+        <v>9000000</v>
       </c>
       <c r="AE98" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         </is>
       </c>
       <c r="AG98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH98" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
       </c>
       <c r="AJ98" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2024-06-15</t>
         </is>
       </c>
       <c r="AK98" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
         </is>
       </c>
       <c r="AO98" t="n">
-        <v>1000000</v>
+        <v>10200000</v>
       </c>
       <c r="AP98" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         </is>
       </c>
       <c r="AR98" t="n">
-        <v>29500000</v>
+        <v>9000000</v>
       </c>
       <c r="AS98" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
+          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-90bebc722e01463d8665522d21d07808</t>
+          <t>https://www.notion.so/98-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -20049,7 +20049,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>20900000</v>
+        <v>5810000</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         </is>
       </c>
       <c r="W99" t="n">
-        <v>62100000</v>
+        <v>24690000</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="AD99" t="n">
-        <v>83000000</v>
+        <v>29500000</v>
       </c>
       <c r="AE99" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         </is>
       </c>
       <c r="AG99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH99" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
       </c>
       <c r="AJ99" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-16</t>
         </is>
       </c>
       <c r="AK99" t="inlineStr"/>
@@ -20141,7 +20141,7 @@
         </is>
       </c>
       <c r="AO99" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AP99" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         </is>
       </c>
       <c r="AR99" t="n">
-        <v>83000000</v>
+        <v>29500000</v>
       </c>
       <c r="AS99" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
+          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-a675a1975fde48f0bd3da055d136af68</t>
+          <t>https://www.notion.so/99-90bebc722e01463d8665522d21d07808</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -20248,7 +20248,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>4020000</v>
+        <v>20900000</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         </is>
       </c>
       <c r="W100" t="n">
-        <v>2480000</v>
+        <v>62100000</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         </is>
       </c>
       <c r="AA100" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         </is>
       </c>
       <c r="AD100" t="n">
-        <v>6500000</v>
+        <v>83000000</v>
       </c>
       <c r="AE100" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
       </c>
       <c r="AJ100" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AK100" t="inlineStr"/>
@@ -20353,7 +20353,7 @@
         </is>
       </c>
       <c r="AR100" t="n">
-        <v>7000000</v>
+        <v>83000000</v>
       </c>
       <c r="AS100" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
+          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-bdf09569481c49b0a4e33ea1e03dd723</t>
+          <t>https://www.notion.so/100-a675a1975fde48f0bd3da055d136af68</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -20447,7 +20447,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>490000</v>
+        <v>4020000</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         </is>
       </c>
       <c r="W101" t="n">
-        <v>12510000</v>
+        <v>2480000</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         </is>
       </c>
       <c r="AA101" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="AD101" t="n">
-        <v>13000000</v>
+        <v>6500000</v>
       </c>
       <c r="AE101" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
       </c>
       <c r="AJ101" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="AK101" t="inlineStr"/>
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="AR101" t="n">
-        <v>18000000</v>
+        <v>7000000</v>
       </c>
       <c r="AS101" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
+          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-ec32e03e445d4553bb06b880d2cd2412</t>
+          <t>https://www.notion.so/101-bdf09569481c49b0a4e33ea1e03dd723</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>10100000</v>
+        <v>490000</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         </is>
       </c>
       <c r="W102" t="n">
-        <v>-8100000</v>
+        <v>12510000</v>
       </c>
       <c r="X102" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         </is>
       </c>
       <c r="AA102" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         </is>
       </c>
       <c r="AD102" t="n">
-        <v>2000000</v>
+        <v>13000000</v>
       </c>
       <c r="AE102" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         </is>
       </c>
       <c r="AG102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH102" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
       </c>
       <c r="AJ102" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AK102" t="inlineStr"/>
@@ -20751,7 +20751,7 @@
         </is>
       </c>
       <c r="AR102" t="n">
-        <v>2000000</v>
+        <v>18000000</v>
       </c>
       <c r="AS102" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
+          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-f8405cf362b34ea19fa06440f290bed6</t>
+          <t>https://www.notion.so/102-ec32e03e445d4553bb06b880d2cd2412</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>4346000</v>
+        <v>10100000</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         </is>
       </c>
       <c r="W103" t="n">
-        <v>36054000</v>
+        <v>-8100000</v>
       </c>
       <c r="X103" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         </is>
       </c>
       <c r="AD103" t="n">
-        <v>39400000</v>
+        <v>2000000</v>
       </c>
       <c r="AE103" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         </is>
       </c>
       <c r="AG103" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AH103" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
       </c>
       <c r="AJ103" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AK103" t="inlineStr"/>
@@ -20937,7 +20937,7 @@
         </is>
       </c>
       <c r="AO103" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AP103" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         </is>
       </c>
       <c r="AR103" t="n">
-        <v>39400000</v>
+        <v>2000000</v>
       </c>
       <c r="AS103" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
+          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-1a86e25a53c646128e08b97c9dba0ec1</t>
+          <t>https://www.notion.so/103-f8405cf362b34ea19fa06440f290bed6</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -21044,7 +21044,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>7500000</v>
+        <v>4346000</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         </is>
       </c>
       <c r="W104" t="n">
-        <v>-6500000</v>
+        <v>36054000</v>
       </c>
       <c r="X104" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         </is>
       </c>
       <c r="AD104" t="n">
-        <v>0</v>
+        <v>39400000</v>
       </c>
       <c r="AE104" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="AG104" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH104" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
       </c>
       <c r="AJ104" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="AK104" t="inlineStr"/>
@@ -21149,7 +21149,7 @@
         </is>
       </c>
       <c r="AR104" t="n">
-        <v>0</v>
+        <v>39400000</v>
       </c>
       <c r="AS104" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
+          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-1f504c07c08148d59f0b4f793bd71da1</t>
+          <t>https://www.notion.so/104-1a86e25a53c646128e08b97c9dba0ec1</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -21243,7 +21243,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>9400000</v>
+        <v>7500000</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         </is>
       </c>
       <c r="W105" t="n">
-        <v>600000</v>
+        <v>-6500000</v>
       </c>
       <c r="X105" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         </is>
       </c>
       <c r="AA105" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         </is>
       </c>
       <c r="AD105" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="AE105" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         </is>
       </c>
       <c r="AG105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH105" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
       </c>
       <c r="AJ105" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="AK105" t="inlineStr"/>
@@ -21335,7 +21335,7 @@
         </is>
       </c>
       <c r="AO105" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AP105" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         </is>
       </c>
       <c r="AR105" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AS105" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
+          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-728ff8a560cc4dcf9226efbea76ba060</t>
+          <t>https://www.notion.so/105-1f504c07c08148d59f0b4f793bd71da1</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1350000</v>
+        <v>9400000</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         </is>
       </c>
       <c r="W106" t="n">
-        <v>1650000</v>
+        <v>600000</v>
       </c>
       <c r="X106" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         </is>
       </c>
       <c r="AA106" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         </is>
       </c>
       <c r="AD106" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="AE106" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         </is>
       </c>
       <c r="AG106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH106" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
       </c>
       <c r="AJ106" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="AK106" t="inlineStr"/>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="AR106" t="n">
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="AS106" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
+          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-7a7ae9a01b1640f1baf46d11089719e6</t>
+          <t>https://www.notion.so/106-728ff8a560cc4dcf9226efbea76ba060</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -21641,7 +21641,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>840000</v>
+        <v>1350000</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         </is>
       </c>
       <c r="W107" t="n">
-        <v>2660000</v>
+        <v>1650000</v>
       </c>
       <c r="X107" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         </is>
       </c>
       <c r="AD107" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="AE107" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
       </c>
       <c r="AJ107" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AK107" t="inlineStr"/>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="AR107" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="AS107" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
+          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-88d14c183b0140549f4e8500ffac3be7</t>
+          <t>https://www.notion.so/107-7a7ae9a01b1640f1baf46d11089719e6</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -21840,7 +21840,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>11800000</v>
+        <v>840000</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         </is>
       </c>
       <c r="W108" t="n">
-        <v>-8800000</v>
+        <v>2660000</v>
       </c>
       <c r="X108" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         </is>
       </c>
       <c r="AD108" t="n">
-        <v>2000000</v>
+        <v>3500000</v>
       </c>
       <c r="AE108" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="AG108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH108" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
       </c>
       <c r="AJ108" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AK108" t="inlineStr"/>
@@ -21932,7 +21932,7 @@
         </is>
       </c>
       <c r="AO108" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AP108" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         </is>
       </c>
       <c r="AR108" t="n">
-        <v>2000000</v>
+        <v>3500000</v>
       </c>
       <c r="AS108" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
+          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-b6645ed00f114a66bd0b0121269a6719</t>
+          <t>https://www.notion.so/108-88d14c183b0140549f4e8500ffac3be7</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -22039,7 +22039,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>11800000</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         </is>
       </c>
       <c r="W109" t="n">
-        <v>3000000</v>
+        <v>-8800000</v>
       </c>
       <c r="X109" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         </is>
       </c>
       <c r="AD109" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AE109" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         </is>
       </c>
       <c r="AG109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH109" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="AJ109" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AK109" t="inlineStr"/>
@@ -22131,7 +22131,7 @@
         </is>
       </c>
       <c r="AO109" t="n">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="AP109" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         </is>
       </c>
       <c r="AR109" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AS109" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>d68c8181-6b8f-47d1-a5ef-16898d85d474</t>
+          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-d68c81816b8f47d1a5ef16898d85d474</t>
+          <t>https://www.notion.so/109-b6645ed00f114a66bd0b0121269a6719</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -22238,7 +22238,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>7350000</v>
+        <v>0</v>
       </c>
       <c r="T110" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         </is>
       </c>
       <c r="W110" t="n">
-        <v>-7350000</v>
+        <v>3000000</v>
       </c>
       <c r="X110" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
       </c>
       <c r="AJ110" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="AK110" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         </is>
       </c>
       <c r="AO110" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AP110" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>0953f482-0768-4567-b934-8895a4aad9fe</t>
+          <t>d68c8181-6b8f-47d1-a5ef-16898d85d474</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-0953f48207684567b9348895a4aad9fe</t>
+          <t>https://www.notion.so/110-d68c81816b8f47d1a5ef16898d85d474</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>7350000</v>
       </c>
       <c r="T111" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         </is>
       </c>
       <c r="W111" t="n">
-        <v>3000000</v>
+        <v>-7350000</v>
       </c>
       <c r="X111" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
       </c>
       <c r="AJ111" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="AK111" t="inlineStr"/>
@@ -22529,7 +22529,7 @@
         </is>
       </c>
       <c r="AO111" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AP111" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3e0faaad-22aa-462b-91d2-862efc98e0d0</t>
+          <t>0953f482-0768-4567-b934-8895a4aad9fe</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-3e0faaad22aa462b91d2862efc98e0d0</t>
+          <t>https://www.notion.so/111-0953f48207684567b9348895a4aad9fe</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -22636,7 +22636,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>22624000</v>
+        <v>0</v>
       </c>
       <c r="T112" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         </is>
       </c>
       <c r="W112" t="n">
-        <v>-17624000</v>
+        <v>3000000</v>
       </c>
       <c r="X112" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
       </c>
       <c r="AJ112" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="AK112" t="inlineStr"/>
@@ -22728,7 +22728,7 @@
         </is>
       </c>
       <c r="AO112" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="AP112" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>754d0ed9-6755-422b-9791-7da3049b0d8c</t>
+          <t>3e0faaad-22aa-462b-91d2-862efc98e0d0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-754d0ed96755422b97917da3049b0d8c</t>
+          <t>https://www.notion.so/112-3e0faaad22aa462b91d2862efc98e0d0</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -22835,7 +22835,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>200000</v>
+        <v>22624000</v>
       </c>
       <c r="T113" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         </is>
       </c>
       <c r="W113" t="n">
-        <v>23300000</v>
+        <v>-17624000</v>
       </c>
       <c r="X113" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         </is>
       </c>
       <c r="AD113" t="n">
-        <v>17500000</v>
+        <v>0</v>
       </c>
       <c r="AE113" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         </is>
       </c>
       <c r="AG113" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH113" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
       </c>
       <c r="AJ113" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="AK113" t="inlineStr"/>
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="AO113" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="AP113" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         </is>
       </c>
       <c r="AR113" t="n">
-        <v>17500000</v>
+        <v>0</v>
       </c>
       <c r="AS113" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>912f2e26-2c50-4a00-baa7-f729e7ec460a</t>
+          <t>754d0ed9-6755-422b-9791-7da3049b0d8c</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-912f2e262c504a00baa7f729e7ec460a</t>
+          <t>https://www.notion.so/113-754d0ed96755422b97917da3049b0d8c</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -23034,7 +23034,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>5000000</v>
+        <v>200000</v>
       </c>
       <c r="T114" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="W114" t="n">
-        <v>9730000</v>
+        <v>23300000</v>
       </c>
       <c r="X114" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         </is>
       </c>
       <c r="AA114" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AB114" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         </is>
       </c>
       <c r="AD114" t="n">
-        <v>14730000</v>
+        <v>17500000</v>
       </c>
       <c r="AE114" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="AG114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH114" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
       </c>
       <c r="AJ114" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="AK114" t="inlineStr"/>
@@ -23126,7 +23126,7 @@
         </is>
       </c>
       <c r="AO114" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="AP114" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         </is>
       </c>
       <c r="AR114" t="n">
-        <v>17730000</v>
+        <v>17500000</v>
       </c>
       <c r="AS114" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>9be9549a-5129-46cb-9fed-31c5adeb0a32</t>
+          <t>912f2e26-2c50-4a00-baa7-f729e7ec460a</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-9be9549a512946cb9fed31c5adeb0a32</t>
+          <t>https://www.notion.so/114-912f2e262c504a00baa7f729e7ec460a</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -23233,7 +23233,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>2584000</v>
+        <v>5000000</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         </is>
       </c>
       <c r="W115" t="n">
-        <v>6916000</v>
+        <v>9730000</v>
       </c>
       <c r="X115" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         </is>
       </c>
       <c r="AA115" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AB115" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         </is>
       </c>
       <c r="AD115" t="n">
-        <v>4500000</v>
+        <v>14730000</v>
       </c>
       <c r="AE115" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         </is>
       </c>
       <c r="AG115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH115" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
       </c>
       <c r="AJ115" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="AK115" t="inlineStr"/>
@@ -23325,34 +23325,233 @@
         </is>
       </c>
       <c r="AO115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP115" t="inlineStr">
+        <is>
+          <t>oNis</t>
+        </is>
+      </c>
+      <c r="AQ115" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR115" t="n">
+        <v>17730000</v>
+      </c>
+      <c r="AS115" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT115" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU115" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '114', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '114', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>9be9549a-5129-46cb-9fed-31c5adeb0a32</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2024-06-25T09:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2024-07-06T13:12:00.000Z</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/115-9be9549a512946cb9fed31c5adeb0a32</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>f209a418-4aa2-4b65-9cfc-4a94b6af86b0</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>IynB</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S116" t="n">
+        <v>2584000</v>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>PSic</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W116" t="n">
+        <v>6916000</v>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>SvP%5E</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>V%3CuY</t>
+        </is>
+      </c>
+      <c r="AC116" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AD116" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="AE116" t="inlineStr">
+        <is>
+          <t>%5Be%3DQ</t>
+        </is>
+      </c>
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AG116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH116" t="inlineStr">
+        <is>
+          <t>ccio</t>
+        </is>
+      </c>
+      <c r="AI116" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AJ116" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="AK116" t="inlineStr"/>
+      <c r="AL116" t="inlineStr"/>
+      <c r="AM116" t="inlineStr">
+        <is>
+          <t>iRq%5E</t>
+        </is>
+      </c>
+      <c r="AN116" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO116" t="n">
         <v>5000000</v>
       </c>
-      <c r="AP115" t="inlineStr">
+      <c r="AP116" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AQ115" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR115" t="n">
+      <c r="AQ116" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR116" t="n">
         <v>4500000</v>
       </c>
-      <c r="AS115" t="inlineStr">
+      <c r="AS116" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT115" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU115" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': '114', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '114', 'href': None}]</t>
+      <c r="AU116" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '115', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '115', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU116"/>
+  <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
+          <t>8436b303-df7c-489c-989b-06cd1c2a9683</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-04T10:52:00.000Z</t>
+          <t>2024-07-07T12:13:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-5395834b61a2463b847fc7d1d0bed8f6</t>
+          <t>https://www.notion.so/1-8436b303df7c489c989b06cd1c2a9683</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
+          <t>6442fa01-562f-4103-9b01-8aa5741e4802</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-02T21:32:00.000Z</t>
+          <t>2024-07-07T12:13:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-e7a195146e0b4f84851f8eeef70f2fd7</t>
+          <t>https://www.notion.so/2-6442fa01562f41039b018aa5741e4802</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
+          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-02T16:37:00.000Z</t>
+          <t>2024-07-04T10:52:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-4e956c66c56d48e0a94e770f2a14fcd4</t>
+          <t>https://www.notion.so/3-5395834b61a2463b847fc7d1d0bed8f6</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
+          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-01T14:25:00.000Z</t>
+          <t>2024-07-02T21:32:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-d916ccf252d34410be2c48b835b28092</t>
+          <t>https://www.notion.so/4-e7a195146e0b4f84851f8eeef70f2fd7</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
+          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-06-30T15:05:00.000Z</t>
+          <t>2024-07-02T16:37:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-fe45d7bd6e8d4e758b41a545ca37284b</t>
+          <t>https://www.notion.so/5-4e956c66c56d48e0a94e770f2a14fcd4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
+          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-29T09:35:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-a782c44e6bd94f6f97910d56f4701144</t>
+          <t>https://www.notion.so/6-d916ccf252d34410be2c48b835b28092</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
+          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-28T13:59:00.000Z</t>
+          <t>2024-06-30T15:05:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-e55892c67e5c4da388234b7400a2c426</t>
+          <t>https://www.notion.so/7-fe45d7bd6e8d4e758b41a545ca37284b</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
+          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-27T16:20:00.000Z</t>
+          <t>2024-06-29T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-34c450788cfd465b9ac12c592f485be9</t>
+          <t>https://www.notion.so/8-a782c44e6bd94f6f97910d56f4701144</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
+          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-27T13:13:00.000Z</t>
+          <t>2024-06-28T13:59:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-7d5475d81cf94a31817577a91b1d6821</t>
+          <t>https://www.notion.so/9-e55892c67e5c4da388234b7400a2c426</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
+          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-06-27T02:14:00.000Z</t>
+          <t>2024-06-27T16:20:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-392b89e1e026401083b114dc8548c520</t>
+          <t>https://www.notion.so/10-34c450788cfd465b9ac12c592f485be9</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
+          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-06-25T09:26:00.000Z</t>
+          <t>2024-06-27T13:13:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-2f84e5ec07e44b24b0bcef90e98b33d5</t>
+          <t>https://www.notion.so/11-7d5475d81cf94a31817577a91b1d6821</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
+          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-06-25T09:26:00.000Z</t>
+          <t>2024-06-27T02:14:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-52f91de14fd84c838e4d679d7bdcc881</t>
+          <t>https://www.notion.so/12-392b89e1e026401083b114dc8548c520</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
+          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-5a9e3a51f92846569ab98fd3f679bd7d</t>
+          <t>https://www.notion.so/13-2f84e5ec07e44b24b0bcef90e98b33d5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
+          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-4bc113ade36f4a5bb9c347f0d8fa9483</t>
+          <t>https://www.notion.so/14-52f91de14fd84c838e4d679d7bdcc881</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
+          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-59dbbce6813c4e81968ef894402a905c</t>
+          <t>https://www.notion.so/15-5a9e3a51f92846569ab98fd3f679bd7d</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
+          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-5b3aba239f214c9590350a484156357e</t>
+          <t>https://www.notion.so/16-4bc113ade36f4a5bb9c347f0d8fa9483</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
+          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-63f85e62af8c408e9daf5a9a6f2302fb</t>
+          <t>https://www.notion.so/17-59dbbce6813c4e81968ef894402a905c</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
+          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-737a5be1ee1541cb986e20a11a920b1e</t>
+          <t>https://www.notion.so/18-5b3aba239f214c9590350a484156357e</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
+          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
+          <t>https://www.notion.so/19-63f85e62af8c408e9daf5a9a6f2302fb</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
+          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-ccf9a743cf2c4219bac2a35ef088689b</t>
+          <t>https://www.notion.so/20-737a5be1ee1541cb986e20a11a920b1e</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
+          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-e773fe355b3f48a68cd11dafda818501</t>
+          <t>https://www.notion.so/21-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
+          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-f9b3b690bbe040ebbd289e5d0336ff6f</t>
+          <t>https://www.notion.so/22-ccf9a743cf2c4219bac2a35ef088689b</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
+          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-3e0543b78e4040d086c2d6e3118dbc93</t>
+          <t>https://www.notion.so/23-e773fe355b3f48a68cd11dafda818501</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
+          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-53bb0ed6fdff4ac094552473d60b9dc6</t>
+          <t>https://www.notion.so/24-f9b3b690bbe040ebbd289e5d0336ff6f</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
+          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-63721adae1f9466b98495b6955c43a66</t>
+          <t>https://www.notion.so/25-3e0543b78e4040d086c2d6e3118dbc93</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
+          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-772db640e3c54e5f89b5a8eb24f05039</t>
+          <t>https://www.notion.so/26-53bb0ed6fdff4ac094552473d60b9dc6</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
+          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-78474f682686412fa1724b22a4f46958</t>
+          <t>https://www.notion.so/27-63721adae1f9466b98495b6955c43a66</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
+          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-aa7b036608e44f5b9c2df00564f071b9</t>
+          <t>https://www.notion.so/28-772db640e3c54e5f89b5a8eb24f05039</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
+          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
+          <t>https://www.notion.so/29-78474f682686412fa1724b22a4f46958</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
+          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-b624a950bebd404f84634ddc4b83efa4</t>
+          <t>https://www.notion.so/30-aa7b036608e44f5b9c2df00564f071b9</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
+          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-e011e118d9a343749b4b6c5035d8d76a</t>
+          <t>https://www.notion.so/31-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>06097b75-925b-488a-805c-597895a59893</t>
+          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-06097b75925b488a805c597895a59893</t>
+          <t>https://www.notion.so/32-b624a950bebd404f84634ddc4b83efa4</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
+          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
+          <t>https://www.notion.so/33-e011e118d9a343749b4b6c5035d8d76a</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
+          <t>06097b75-925b-488a-805c-597895a59893</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-295a44f6ca9d4aa6865cbc97a63ed49f</t>
+          <t>https://www.notion.so/34-06097b75925b488a805c597895a59893</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
+          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-2fcd17a168234616b1f931622834ed19</t>
+          <t>https://www.notion.so/35-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
+          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-39a4cf59c21f42c8ab12f22930737df2</t>
+          <t>https://www.notion.so/36-295a44f6ca9d4aa6865cbc97a63ed49f</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
+          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-5967f8063e81474fa3bb396088281bd4</t>
+          <t>https://www.notion.so/37-2fcd17a168234616b1f931622834ed19</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
+          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-87f5309752064f52abc14594d8f162f0</t>
+          <t>https://www.notion.so/38-39a4cf59c21f42c8ab12f22930737df2</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
+          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-a9baec7a15a24b22b1a554d69ba8e6c2</t>
+          <t>https://www.notion.so/39-5967f8063e81474fa3bb396088281bd4</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
+          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-c745f5172a0044d2b498ac5356096152</t>
+          <t>https://www.notion.so/40-87f5309752064f52abc14594d8f162f0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
+          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-df0fa5a9e54848fba152011b467e6375</t>
+          <t>https://www.notion.so/41-a9baec7a15a24b22b1a554d69ba8e6c2</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
+          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-06a83616f52f4b9a8b70d067cdaf3202</t>
+          <t>https://www.notion.so/42-c745f5172a0044d2b498ac5356096152</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
+          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-39cce7dee402481e8ccfda8e68d43492</t>
+          <t>https://www.notion.so/43-df0fa5a9e54848fba152011b467e6375</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
+          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-4bd23e8c6cd246659e5aff1d4e62af08</t>
+          <t>https://www.notion.so/44-06a83616f52f4b9a8b70d067cdaf3202</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
+          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-527f68635d16482fac74c9ba4d5a9143</t>
+          <t>https://www.notion.so/45-39cce7dee402481e8ccfda8e68d43492</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
+          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-645a16b0358146c883c9c261d6fde312</t>
+          <t>https://www.notion.so/46-4bd23e8c6cd246659e5aff1d4e62af08</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
+          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-6680b008e43b478e96820998b28925ff</t>
+          <t>https://www.notion.so/47-527f68635d16482fac74c9ba4d5a9143</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
+          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-9699d5ff48ac4bac975f130433367def</t>
+          <t>https://www.notion.so/48-645a16b0358146c883c9c261d6fde312</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
+          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-d13e1708092c4557a80eff62b2a24643</t>
+          <t>https://www.notion.so/49-6680b008e43b478e96820998b28925ff</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
+          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-ddf1942de6a34109899e2a6536bce1f8</t>
+          <t>https://www.notion.so/50-9699d5ff48ac4bac975f130433367def</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
+          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-e3fee4c2d7a54377bb9b81a4d961c61c</t>
+          <t>https://www.notion.so/51-d13e1708092c4557a80eff62b2a24643</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
+          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-2af88d4623c84d95b76fc87a630b9054</t>
+          <t>https://www.notion.so/52-ddf1942de6a34109899e2a6536bce1f8</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
+          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-347ec2e381c54a778fc7a8ac05867d60</t>
+          <t>https://www.notion.so/53-e3fee4c2d7a54377bb9b81a4d961c61c</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
+          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-3c5774ced68547909dcc601b516ca4af</t>
+          <t>https://www.notion.so/54-2af88d4623c84d95b76fc87a630b9054</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
+          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-547c0b51453c4aa1a58774b6d5dd3f1a</t>
+          <t>https://www.notion.so/55-347ec2e381c54a778fc7a8ac05867d60</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
+          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-930db29f743a4c618e74c3b56ba5a0ce</t>
+          <t>https://www.notion.so/56-3c5774ced68547909dcc601b516ca4af</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
+          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-b15c39801fdb479b8be4aa3d4e13a66c</t>
+          <t>https://www.notion.so/57-547c0b51453c4aa1a58774b6d5dd3f1a</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
+          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
+          <t>https://www.notion.so/58-930db29f743a4c618e74c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
+          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-e3633d8d20f44321a192f5afa6e8d91f</t>
+          <t>https://www.notion.so/59-b15c39801fdb479b8be4aa3d4e13a66c</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
+          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-ea36dd0d73ea45809067c8f83143240a</t>
+          <t>https://www.notion.so/60-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
+          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-0f4adb1b8c0648359cdb3d9649a277a9</t>
+          <t>https://www.notion.so/61-e3633d8d20f44321a192f5afa6e8d91f</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
+          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-2c3594a4e2ab4ca197daf3925855ad80</t>
+          <t>https://www.notion.so/62-ea36dd0d73ea45809067c8f83143240a</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
+          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
+          <t>https://www.notion.so/63-0f4adb1b8c0648359cdb3d9649a277a9</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
+          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-37d5b2f22a054c3e9cb85c9cbe744b00</t>
+          <t>https://www.notion.so/64-2c3594a4e2ab4ca197daf3925855ad80</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
+          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-3f7c917797684c1c888528b8612459c2</t>
+          <t>https://www.notion.so/65-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
+          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-58997e574bcb431397a8497e9d964980</t>
+          <t>https://www.notion.so/66-37d5b2f22a054c3e9cb85c9cbe744b00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
+          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-779e4d4596fe43f3bec345641f68e7e4</t>
+          <t>https://www.notion.so/67-3f7c917797684c1c888528b8612459c2</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
+          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-92b191de589d496595a70f646c4aac1f</t>
+          <t>https://www.notion.so/68-58997e574bcb431397a8497e9d964980</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
+          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-a19da822345e48159eaa47656dadde49</t>
+          <t>https://www.notion.so/69-779e4d4596fe43f3bec345641f68e7e4</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
+          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-ccbc7c76c65e4060947ff54950f4d1f2</t>
+          <t>https://www.notion.so/70-92b191de589d496595a70f646c4aac1f</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
+          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-f461d5da5dc040d09ee04c4a3e544174</t>
+          <t>https://www.notion.so/71-a19da822345e48159eaa47656dadde49</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
+          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-0e78e7b3ef2949468ad9c23a53b4da6c</t>
+          <t>https://www.notion.so/72-ccbc7c76c65e4060947ff54950f4d1f2</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
+          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-0efedcf0d5a1427b82ae489389a66625</t>
+          <t>https://www.notion.so/73-f461d5da5dc040d09ee04c4a3e544174</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
+          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-2d3c378218cb4aaab48ee6efa4eb463f</t>
+          <t>https://www.notion.so/74-0e78e7b3ef2949468ad9c23a53b4da6c</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
+          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-43d05f1f3f764c35a56a0db0a57a724c</t>
+          <t>https://www.notion.so/75-0efedcf0d5a1427b82ae489389a66625</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
+          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-777d34f48e434c2fb895bae3df7c2aad</t>
+          <t>https://www.notion.so/76-2d3c378218cb4aaab48ee6efa4eb463f</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
+          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-b12efaee4b914d6e8a7f291ac8902ce0</t>
+          <t>https://www.notion.so/77-43d05f1f3f764c35a56a0db0a57a724c</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
+          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-4ba858826e204c8cb5e0db4eb7dcb148</t>
+          <t>https://www.notion.so/78-777d34f48e434c2fb895bae3df7c2aad</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
+          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-516e5788099d4d99b4f94185ccacf13a</t>
+          <t>https://www.notion.so/79-b12efaee4b914d6e8a7f291ac8902ce0</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7068474c-c815-4317-af38-9720c3766e71</t>
+          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-7068474cc8154317af389720c3766e71</t>
+          <t>https://www.notion.so/80-4ba858826e204c8cb5e0db4eb7dcb148</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
+          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-73b1a91ae40b48a098c64b8294f410c3</t>
+          <t>https://www.notion.so/81-516e5788099d4d99b4f94185ccacf13a</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
+          <t>7068474c-c815-4317-af38-9720c3766e71</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-97f9cfe2e9234ccfb370c71296ca2433</t>
+          <t>https://www.notion.so/82-7068474cc8154317af389720c3766e71</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
+          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-a4751e1dad9c4affb14aa693c3cdb64d</t>
+          <t>https://www.notion.so/83-73b1a91ae40b48a098c64b8294f410c3</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
+          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-552383fe1f304ccaa812498242b4a1ee</t>
+          <t>https://www.notion.so/84-97f9cfe2e9234ccfb370c71296ca2433</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
+          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-624858dc7da1484dae4b00213655e72e</t>
+          <t>https://www.notion.so/85-a4751e1dad9c4affb14aa693c3cdb64d</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
+          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-6642a940268347538a561f7597e51291</t>
+          <t>https://www.notion.so/86-552383fe1f304ccaa812498242b4a1ee</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
+          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-76a29ccbef984e5baca434051f89c562</t>
+          <t>https://www.notion.so/87-624858dc7da1484dae4b00213655e72e</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
+          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-8f6acd2f75f84a60a7612f9c866fd510</t>
+          <t>https://www.notion.so/88-6642a940268347538a561f7597e51291</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
+          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-a374f898aee846e7912646fcf92dad7e</t>
+          <t>https://www.notion.so/89-76a29ccbef984e5baca434051f89c562</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
+          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-c0bcf57b8e35442fa9aba57763c9e325</t>
+          <t>https://www.notion.so/90-8f6acd2f75f84a60a7612f9c866fd510</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
+          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-ca7f48f1acec4d18bf23afe373dad0a1</t>
+          <t>https://www.notion.so/91-a374f898aee846e7912646fcf92dad7e</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
+          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-eeefb431b3e140238150ed014fff47f7</t>
+          <t>https://www.notion.so/92-c0bcf57b8e35442fa9aba57763c9e325</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
+          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-f225669da15542ef8cdb31fd7a530ab8</t>
+          <t>https://www.notion.so/93-ca7f48f1acec4d18bf23afe373dad0a1</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
+          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-34b97b8c285b4d76bf9d1568f645d6c5</t>
+          <t>https://www.notion.so/94-eeefb431b3e140238150ed014fff47f7</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>5a18478d-a522-45c2-9e43-032974690527</t>
+          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-5a18478da52245c29e43032974690527</t>
+          <t>https://www.notion.so/95-f225669da15542ef8cdb31fd7a530ab8</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
+          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-650732c65fad4de7a252544d44b48650</t>
+          <t>https://www.notion.so/96-34b97b8c285b4d76bf9d1568f645d6c5</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
+          <t>5a18478d-a522-45c2-9e43-032974690527</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-844ddd9f02b64958b1c89b53ce84cab6</t>
+          <t>https://www.notion.so/97-5a18478da52245c29e43032974690527</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
+          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
+          <t>https://www.notion.so/98-650732c65fad4de7a252544d44b48650</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
+          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-90bebc722e01463d8665522d21d07808</t>
+          <t>https://www.notion.so/99-844ddd9f02b64958b1c89b53ce84cab6</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
+          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-a675a1975fde48f0bd3da055d136af68</t>
+          <t>https://www.notion.so/100-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
+          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-bdf09569481c49b0a4e33ea1e03dd723</t>
+          <t>https://www.notion.so/101-90bebc722e01463d8665522d21d07808</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
+          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-ec32e03e445d4553bb06b880d2cd2412</t>
+          <t>https://www.notion.so/102-a675a1975fde48f0bd3da055d136af68</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
+          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-f8405cf362b34ea19fa06440f290bed6</t>
+          <t>https://www.notion.so/103-bdf09569481c49b0a4e33ea1e03dd723</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
+          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-1a86e25a53c646128e08b97c9dba0ec1</t>
+          <t>https://www.notion.so/104-ec32e03e445d4553bb06b880d2cd2412</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
+          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-1f504c07c08148d59f0b4f793bd71da1</t>
+          <t>https://www.notion.so/105-f8405cf362b34ea19fa06440f290bed6</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
+          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-728ff8a560cc4dcf9226efbea76ba060</t>
+          <t>https://www.notion.so/106-1a86e25a53c646128e08b97c9dba0ec1</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
+          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-7a7ae9a01b1640f1baf46d11089719e6</t>
+          <t>https://www.notion.so/107-1f504c07c08148d59f0b4f793bd71da1</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
+          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-88d14c183b0140549f4e8500ffac3be7</t>
+          <t>https://www.notion.so/108-728ff8a560cc4dcf9226efbea76ba060</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
+          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-b6645ed00f114a66bd0b0121269a6719</t>
+          <t>https://www.notion.so/109-7a7ae9a01b1640f1baf46d11089719e6</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>d68c8181-6b8f-47d1-a5ef-16898d85d474</t>
+          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-d68c81816b8f47d1a5ef16898d85d474</t>
+          <t>https://www.notion.so/110-88d14c183b0140549f4e8500ffac3be7</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>0953f482-0768-4567-b934-8895a4aad9fe</t>
+          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-0953f48207684567b9348895a4aad9fe</t>
+          <t>https://www.notion.so/111-b6645ed00f114a66bd0b0121269a6719</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>3e0faaad-22aa-462b-91d2-862efc98e0d0</t>
+          <t>d68c8181-6b8f-47d1-a5ef-16898d85d474</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-3e0faaad22aa462b91d2862efc98e0d0</t>
+          <t>https://www.notion.so/112-d68c81816b8f47d1a5ef16898d85d474</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>754d0ed9-6755-422b-9791-7da3049b0d8c</t>
+          <t>0953f482-0768-4567-b934-8895a4aad9fe</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-754d0ed96755422b97917da3049b0d8c</t>
+          <t>https://www.notion.so/113-0953f48207684567b9348895a4aad9fe</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -23165,7 +23165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>912f2e26-2c50-4a00-baa7-f729e7ec460a</t>
+          <t>3e0faaad-22aa-462b-91d2-862efc98e0d0</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-912f2e262c504a00baa7f729e7ec460a</t>
+          <t>https://www.notion.so/114-3e0faaad22aa462b91d2862efc98e0d0</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -23364,7 +23364,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>9be9549a-5129-46cb-9fed-31c5adeb0a32</t>
+          <t>754d0ed9-6755-422b-9791-7da3049b0d8c</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-9be9549a512946cb9fed31c5adeb0a32</t>
+          <t>https://www.notion.so/115-754d0ed96755422b97917da3049b0d8c</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -23552,6 +23552,404 @@
       <c r="AU116" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '115', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '115', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>912f2e26-2c50-4a00-baa7-f729e7ec460a</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2024-06-25T09:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2024-07-08T01:57:00.000Z</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/116-912f2e262c504a00baa7f729e7ec460a</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>f209a418-4aa2-4b65-9cfc-4a94b6af86b0</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>IynB</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S117" t="n">
+        <v>500000</v>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>PSic</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W117" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>SvP%5E</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA117" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>V%3CuY</t>
+        </is>
+      </c>
+      <c r="AC117" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AD117" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="AE117" t="inlineStr">
+        <is>
+          <t>%5Be%3DQ</t>
+        </is>
+      </c>
+      <c r="AF117" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AG117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH117" t="inlineStr">
+        <is>
+          <t>ccio</t>
+        </is>
+      </c>
+      <c r="AI117" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="AK117" t="inlineStr"/>
+      <c r="AL117" t="inlineStr"/>
+      <c r="AM117" t="inlineStr">
+        <is>
+          <t>iRq%5E</t>
+        </is>
+      </c>
+      <c r="AN117" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO117" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AP117" t="inlineStr">
+        <is>
+          <t>oNis</t>
+        </is>
+      </c>
+      <c r="AQ117" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR117" t="n">
+        <v>5200000</v>
+      </c>
+      <c r="AS117" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT117" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU117" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '116', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '116', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>9be9549a-5129-46cb-9fed-31c5adeb0a32</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2024-06-25T09:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2024-07-08T01:57:00.000Z</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/117-9be9549a512946cb9fed31c5adeb0a32</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>f209a418-4aa2-4b65-9cfc-4a94b6af86b0</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>IynB</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>PSic</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W118" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>SvP%5E</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>V%3CuY</t>
+        </is>
+      </c>
+      <c r="AC118" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE118" t="inlineStr">
+        <is>
+          <t>%5Be%3DQ</t>
+        </is>
+      </c>
+      <c r="AF118" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH118" t="inlineStr">
+        <is>
+          <t>ccio</t>
+        </is>
+      </c>
+      <c r="AI118" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AJ118" t="inlineStr">
+        <is>
+          <t>2024-07-07</t>
+        </is>
+      </c>
+      <c r="AK118" t="inlineStr"/>
+      <c r="AL118" t="inlineStr"/>
+      <c r="AM118" t="inlineStr">
+        <is>
+          <t>iRq%5E</t>
+        </is>
+      </c>
+      <c r="AN118" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO118" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="AP118" t="inlineStr">
+        <is>
+          <t>oNis</t>
+        </is>
+      </c>
+      <c r="AQ118" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS118" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT118" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU118" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '117', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '117', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU124"/>
+  <dimension ref="A1:AU127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8d6b7d26-4edc-4e68-a38e-7790fd01614c</t>
+          <t>9c92ffe1-64b7-4a07-8e5d-0eed447a2d19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-17T12:18:00.000Z</t>
+          <t>2024-07-18T08:32:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-8d6b7d264edc4e68a38e7790fd01614c</t>
+          <t>https://www.notion.so/1-9c92ffe164b74a078e5d0eed447a2d19</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>aaae0f51-4d85-4352-8801-b3fdc3f76c2e</t>
+          <t>db5c8611-a0ec-48eb-9c22-4ab757ce3346</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-15T05:35:00.000Z</t>
+          <t>2024-07-17T17:36:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-aaae0f514d8543528801b3fdc3f76c2e</t>
+          <t>https://www.notion.so/2-db5c8611a0ec48eb9c224ab757ce3346</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0617fdee-2b71-4953-b626-0f55f7915fd5</t>
+          <t>42eafb70-bcc1-4d31-84bf-2619bd50ff35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-14T05:02:00.000Z</t>
+          <t>2024-07-17T17:36:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-0617fdee2b714953b6260f55f7915fd5</t>
+          <t>https://www.notion.so/3-42eafb70bcc14d3184bf2619bd50ff35</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>97ddd288-bcfd-4956-9e45-669354aba2f6</t>
+          <t>a7f4933d-55a3-4669-8c86-24e939f755e4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-13T15:30:00.000Z</t>
+          <t>2024-07-17T17:36:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-97ddd288bcfd49569e45669354aba2f6</t>
+          <t>https://www.notion.so/4-a7f4933d55a346698c8624e939f755e4</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0730d559-ddf2-4fe7-885c-a504f9f28a9b</t>
+          <t>8d6b7d26-4edc-4e68-a38e-7790fd01614c</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-12T03:28:00.000Z</t>
+          <t>2024-07-17T12:18:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-0730d559ddf24fe7885ca504f9f28a9b</t>
+          <t>https://www.notion.so/5-8d6b7d264edc4e68a38e7790fd01614c</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>c933e0eb-dd5b-470b-aec5-41fbc163f599</t>
+          <t>aaae0f51-4d85-4352-8801-b3fdc3f76c2e</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-10T03:18:00.000Z</t>
+          <t>2024-07-15T05:35:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-c933e0ebdd5b470baec541fbc163f599</t>
+          <t>https://www.notion.so/6-aaae0f514d8543528801b3fdc3f76c2e</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ccdd307e-b18b-4ed6-9da0-b300e46092f4</t>
+          <t>0617fdee-2b71-4953-b626-0f55f7915fd5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-09T16:05:00.000Z</t>
+          <t>2024-07-14T05:02:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-ccdd307eb18b4ed69da0b300e46092f4</t>
+          <t>https://www.notion.so/7-0617fdee2b714953b6260f55f7915fd5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7a0e8fe1-2018-470c-95fb-b8d82312e72a</t>
+          <t>97ddd288-bcfd-4956-9e45-669354aba2f6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-08T14:18:00.000Z</t>
+          <t>2024-07-13T15:30:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-7a0e8fe12018470c95fbb8d82312e72a</t>
+          <t>https://www.notion.so/8-97ddd288bcfd49569e45669354aba2f6</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8436b303-df7c-489c-989b-06cd1c2a9683</t>
+          <t>0730d559-ddf2-4fe7-885c-a504f9f28a9b</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-07T12:13:00.000Z</t>
+          <t>2024-07-12T03:28:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-8436b303df7c489c989b06cd1c2a9683</t>
+          <t>https://www.notion.so/9-0730d559ddf24fe7885ca504f9f28a9b</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6442fa01-562f-4103-9b01-8aa5741e4802</t>
+          <t>c933e0eb-dd5b-470b-aec5-41fbc163f599</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-07T12:13:00.000Z</t>
+          <t>2024-07-10T03:18:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-6442fa01562f41039b018aa5741e4802</t>
+          <t>https://www.notion.so/10-c933e0ebdd5b470baec541fbc163f599</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
+          <t>ccdd307e-b18b-4ed6-9da0-b300e46092f4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-04T10:52:00.000Z</t>
+          <t>2024-07-09T16:05:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-5395834b61a2463b847fc7d1d0bed8f6</t>
+          <t>https://www.notion.so/11-ccdd307eb18b4ed69da0b300e46092f4</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
+          <t>7a0e8fe1-2018-470c-95fb-b8d82312e72a</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-02T21:32:00.000Z</t>
+          <t>2024-07-08T14:18:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-e7a195146e0b4f84851f8eeef70f2fd7</t>
+          <t>https://www.notion.so/12-7a0e8fe12018470c95fbb8d82312e72a</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
+          <t>8436b303-df7c-489c-989b-06cd1c2a9683</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-02T16:37:00.000Z</t>
+          <t>2024-07-07T12:13:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-4e956c66c56d48e0a94e770f2a14fcd4</t>
+          <t>https://www.notion.so/13-8436b303df7c489c989b06cd1c2a9683</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
+          <t>6442fa01-562f-4103-9b01-8aa5741e4802</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-01T14:25:00.000Z</t>
+          <t>2024-07-07T12:13:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-d916ccf252d34410be2c48b835b28092</t>
+          <t>https://www.notion.so/14-6442fa01562f41039b018aa5741e4802</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
+          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-06-30T15:05:00.000Z</t>
+          <t>2024-07-04T10:52:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-fe45d7bd6e8d4e758b41a545ca37284b</t>
+          <t>https://www.notion.so/15-5395834b61a2463b847fc7d1d0bed8f6</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
+          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-06-29T09:35:00.000Z</t>
+          <t>2024-07-02T21:32:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-a782c44e6bd94f6f97910d56f4701144</t>
+          <t>https://www.notion.so/16-e7a195146e0b4f84851f8eeef70f2fd7</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
+          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-06-28T13:59:00.000Z</t>
+          <t>2024-07-02T16:37:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-e55892c67e5c4da388234b7400a2c426</t>
+          <t>https://www.notion.so/17-4e956c66c56d48e0a94e770f2a14fcd4</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
+          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-06-27T16:20:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-34c450788cfd465b9ac12c592f485be9</t>
+          <t>https://www.notion.so/18-d916ccf252d34410be2c48b835b28092</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,17 +4260,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
+          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-06-27T13:13:00.000Z</t>
+          <t>2024-06-30T15:05:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-7d5475d81cf94a31817577a91b1d6821</t>
+          <t>https://www.notion.so/19-fe45d7bd6e8d4e758b41a545ca37284b</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
+          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-06-27T02:14:00.000Z</t>
+          <t>2024-06-29T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-392b89e1e026401083b114dc8548c520</t>
+          <t>https://www.notion.so/20-a782c44e6bd94f6f97910d56f4701144</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
+          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-25T09:26:00.000Z</t>
+          <t>2024-06-28T13:59:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-2f84e5ec07e44b24b0bcef90e98b33d5</t>
+          <t>https://www.notion.so/21-e55892c67e5c4da388234b7400a2c426</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -4857,17 +4857,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
+          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-25T09:26:00.000Z</t>
+          <t>2024-06-27T16:20:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-52f91de14fd84c838e4d679d7bdcc881</t>
+          <t>https://www.notion.so/22-34c450788cfd465b9ac12c592f485be9</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -5056,17 +5056,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
+          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-06-25T09:26:00.000Z</t>
+          <t>2024-06-27T13:13:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-5a9e3a51f92846569ab98fd3f679bd7d</t>
+          <t>https://www.notion.so/23-7d5475d81cf94a31817577a91b1d6821</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5255,17 +5255,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
+          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-06-25T09:26:00.000Z</t>
+          <t>2024-06-27T02:14:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-4bc113ade36f4a5bb9c347f0d8fa9483</t>
+          <t>https://www.notion.so/24-392b89e1e026401083b114dc8548c520</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
+          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-59dbbce6813c4e81968ef894402a905c</t>
+          <t>https://www.notion.so/25-2f84e5ec07e44b24b0bcef90e98b33d5</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
+          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-5b3aba239f214c9590350a484156357e</t>
+          <t>https://www.notion.so/26-52f91de14fd84c838e4d679d7bdcc881</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
+          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-63f85e62af8c408e9daf5a9a6f2302fb</t>
+          <t>https://www.notion.so/27-5a9e3a51f92846569ab98fd3f679bd7d</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
+          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-737a5be1ee1541cb986e20a11a920b1e</t>
+          <t>https://www.notion.so/28-4bc113ade36f4a5bb9c347f0d8fa9483</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
+          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
+          <t>https://www.notion.so/29-59dbbce6813c4e81968ef894402a905c</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
+          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-ccf9a743cf2c4219bac2a35ef088689b</t>
+          <t>https://www.notion.so/30-5b3aba239f214c9590350a484156357e</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
+          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-e773fe355b3f48a68cd11dafda818501</t>
+          <t>https://www.notion.so/31-63f85e62af8c408e9daf5a9a6f2302fb</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
+          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-f9b3b690bbe040ebbd289e5d0336ff6f</t>
+          <t>https://www.notion.so/32-737a5be1ee1541cb986e20a11a920b1e</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
+          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-3e0543b78e4040d086c2d6e3118dbc93</t>
+          <t>https://www.notion.so/33-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
+          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-53bb0ed6fdff4ac094552473d60b9dc6</t>
+          <t>https://www.notion.so/34-ccf9a743cf2c4219bac2a35ef088689b</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
+          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-63721adae1f9466b98495b6955c43a66</t>
+          <t>https://www.notion.so/35-e773fe355b3f48a68cd11dafda818501</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
+          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-772db640e3c54e5f89b5a8eb24f05039</t>
+          <t>https://www.notion.so/36-f9b3b690bbe040ebbd289e5d0336ff6f</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
+          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-78474f682686412fa1724b22a4f46958</t>
+          <t>https://www.notion.so/37-3e0543b78e4040d086c2d6e3118dbc93</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
+          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-aa7b036608e44f5b9c2df00564f071b9</t>
+          <t>https://www.notion.so/38-53bb0ed6fdff4ac094552473d60b9dc6</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
+          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
+          <t>https://www.notion.so/39-63721adae1f9466b98495b6955c43a66</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
+          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-b624a950bebd404f84634ddc4b83efa4</t>
+          <t>https://www.notion.so/40-772db640e3c54e5f89b5a8eb24f05039</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
+          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-e011e118d9a343749b4b6c5035d8d76a</t>
+          <t>https://www.notion.so/41-78474f682686412fa1724b22a4f46958</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06097b75-925b-488a-805c-597895a59893</t>
+          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-06097b75925b488a805c597895a59893</t>
+          <t>https://www.notion.so/42-aa7b036608e44f5b9c2df00564f071b9</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
+          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
+          <t>https://www.notion.so/43-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
+          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-295a44f6ca9d4aa6865cbc97a63ed49f</t>
+          <t>https://www.notion.so/44-b624a950bebd404f84634ddc4b83efa4</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
+          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-2fcd17a168234616b1f931622834ed19</t>
+          <t>https://www.notion.so/45-e011e118d9a343749b4b6c5035d8d76a</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
+          <t>06097b75-925b-488a-805c-597895a59893</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-39a4cf59c21f42c8ab12f22930737df2</t>
+          <t>https://www.notion.so/46-06097b75925b488a805c597895a59893</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
+          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-5967f8063e81474fa3bb396088281bd4</t>
+          <t>https://www.notion.so/47-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
+          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-87f5309752064f52abc14594d8f162f0</t>
+          <t>https://www.notion.so/48-295a44f6ca9d4aa6865cbc97a63ed49f</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
+          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-a9baec7a15a24b22b1a554d69ba8e6c2</t>
+          <t>https://www.notion.so/49-2fcd17a168234616b1f931622834ed19</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
+          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-c745f5172a0044d2b498ac5356096152</t>
+          <t>https://www.notion.so/50-39a4cf59c21f42c8ab12f22930737df2</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
+          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-df0fa5a9e54848fba152011b467e6375</t>
+          <t>https://www.notion.so/51-5967f8063e81474fa3bb396088281bd4</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
+          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-06a83616f52f4b9a8b70d067cdaf3202</t>
+          <t>https://www.notion.so/52-87f5309752064f52abc14594d8f162f0</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
+          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-39cce7dee402481e8ccfda8e68d43492</t>
+          <t>https://www.notion.so/53-a9baec7a15a24b22b1a554d69ba8e6c2</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
+          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-4bd23e8c6cd246659e5aff1d4e62af08</t>
+          <t>https://www.notion.so/54-c745f5172a0044d2b498ac5356096152</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
+          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-527f68635d16482fac74c9ba4d5a9143</t>
+          <t>https://www.notion.so/55-df0fa5a9e54848fba152011b467e6375</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
+          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-645a16b0358146c883c9c261d6fde312</t>
+          <t>https://www.notion.so/56-06a83616f52f4b9a8b70d067cdaf3202</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
+          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-6680b008e43b478e96820998b28925ff</t>
+          <t>https://www.notion.so/57-39cce7dee402481e8ccfda8e68d43492</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
+          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-9699d5ff48ac4bac975f130433367def</t>
+          <t>https://www.notion.so/58-4bd23e8c6cd246659e5aff1d4e62af08</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
+          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-d13e1708092c4557a80eff62b2a24643</t>
+          <t>https://www.notion.so/59-527f68635d16482fac74c9ba4d5a9143</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
+          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-ddf1942de6a34109899e2a6536bce1f8</t>
+          <t>https://www.notion.so/60-645a16b0358146c883c9c261d6fde312</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
+          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-e3fee4c2d7a54377bb9b81a4d961c61c</t>
+          <t>https://www.notion.so/61-6680b008e43b478e96820998b28925ff</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
+          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-2af88d4623c84d95b76fc87a630b9054</t>
+          <t>https://www.notion.so/62-9699d5ff48ac4bac975f130433367def</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
+          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-347ec2e381c54a778fc7a8ac05867d60</t>
+          <t>https://www.notion.so/63-d13e1708092c4557a80eff62b2a24643</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
+          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-3c5774ced68547909dcc601b516ca4af</t>
+          <t>https://www.notion.so/64-ddf1942de6a34109899e2a6536bce1f8</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
+          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-547c0b51453c4aa1a58774b6d5dd3f1a</t>
+          <t>https://www.notion.so/65-e3fee4c2d7a54377bb9b81a4d961c61c</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
+          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-930db29f743a4c618e74c3b56ba5a0ce</t>
+          <t>https://www.notion.so/66-2af88d4623c84d95b76fc87a630b9054</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
+          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-b15c39801fdb479b8be4aa3d4e13a66c</t>
+          <t>https://www.notion.so/67-347ec2e381c54a778fc7a8ac05867d60</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
+          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
+          <t>https://www.notion.so/68-3c5774ced68547909dcc601b516ca4af</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
+          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-e3633d8d20f44321a192f5afa6e8d91f</t>
+          <t>https://www.notion.so/69-547c0b51453c4aa1a58774b6d5dd3f1a</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
+          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-ea36dd0d73ea45809067c8f83143240a</t>
+          <t>https://www.notion.so/70-930db29f743a4c618e74c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
+          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-0f4adb1b8c0648359cdb3d9649a277a9</t>
+          <t>https://www.notion.so/71-b15c39801fdb479b8be4aa3d4e13a66c</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
+          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-2c3594a4e2ab4ca197daf3925855ad80</t>
+          <t>https://www.notion.so/72-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
+          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
+          <t>https://www.notion.so/73-e3633d8d20f44321a192f5afa6e8d91f</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
+          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-37d5b2f22a054c3e9cb85c9cbe744b00</t>
+          <t>https://www.notion.so/74-ea36dd0d73ea45809067c8f83143240a</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
+          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-3f7c917797684c1c888528b8612459c2</t>
+          <t>https://www.notion.so/75-0f4adb1b8c0648359cdb3d9649a277a9</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
+          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-58997e574bcb431397a8497e9d964980</t>
+          <t>https://www.notion.so/76-2c3594a4e2ab4ca197daf3925855ad80</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
+          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-779e4d4596fe43f3bec345641f68e7e4</t>
+          <t>https://www.notion.so/77-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
+          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-92b191de589d496595a70f646c4aac1f</t>
+          <t>https://www.notion.so/78-37d5b2f22a054c3e9cb85c9cbe744b00</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
+          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-a19da822345e48159eaa47656dadde49</t>
+          <t>https://www.notion.so/79-3f7c917797684c1c888528b8612459c2</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
+          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-ccbc7c76c65e4060947ff54950f4d1f2</t>
+          <t>https://www.notion.so/80-58997e574bcb431397a8497e9d964980</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
+          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-f461d5da5dc040d09ee04c4a3e544174</t>
+          <t>https://www.notion.so/81-779e4d4596fe43f3bec345641f68e7e4</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
+          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-0e78e7b3ef2949468ad9c23a53b4da6c</t>
+          <t>https://www.notion.so/82-92b191de589d496595a70f646c4aac1f</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
+          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-0efedcf0d5a1427b82ae489389a66625</t>
+          <t>https://www.notion.so/83-a19da822345e48159eaa47656dadde49</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
+          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-2d3c378218cb4aaab48ee6efa4eb463f</t>
+          <t>https://www.notion.so/84-ccbc7c76c65e4060947ff54950f4d1f2</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
+          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-43d05f1f3f764c35a56a0db0a57a724c</t>
+          <t>https://www.notion.so/85-f461d5da5dc040d09ee04c4a3e544174</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
+          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-777d34f48e434c2fb895bae3df7c2aad</t>
+          <t>https://www.notion.so/86-0e78e7b3ef2949468ad9c23a53b4da6c</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
+          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-b12efaee4b914d6e8a7f291ac8902ce0</t>
+          <t>https://www.notion.so/87-0efedcf0d5a1427b82ae489389a66625</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
+          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-4ba858826e204c8cb5e0db4eb7dcb148</t>
+          <t>https://www.notion.so/88-2d3c378218cb4aaab48ee6efa4eb463f</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
+          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-516e5788099d4d99b4f94185ccacf13a</t>
+          <t>https://www.notion.so/89-43d05f1f3f764c35a56a0db0a57a724c</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7068474c-c815-4317-af38-9720c3766e71</t>
+          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-7068474cc8154317af389720c3766e71</t>
+          <t>https://www.notion.so/90-777d34f48e434c2fb895bae3df7c2aad</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
+          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-73b1a91ae40b48a098c64b8294f410c3</t>
+          <t>https://www.notion.so/91-b12efaee4b914d6e8a7f291ac8902ce0</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
+          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-97f9cfe2e9234ccfb370c71296ca2433</t>
+          <t>https://www.notion.so/92-4ba858826e204c8cb5e0db4eb7dcb148</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
+          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-a4751e1dad9c4affb14aa693c3cdb64d</t>
+          <t>https://www.notion.so/93-516e5788099d4d99b4f94185ccacf13a</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
+          <t>7068474c-c815-4317-af38-9720c3766e71</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-552383fe1f304ccaa812498242b4a1ee</t>
+          <t>https://www.notion.so/94-7068474cc8154317af389720c3766e71</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
+          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-624858dc7da1484dae4b00213655e72e</t>
+          <t>https://www.notion.so/95-73b1a91ae40b48a098c64b8294f410c3</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
+          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-6642a940268347538a561f7597e51291</t>
+          <t>https://www.notion.so/96-97f9cfe2e9234ccfb370c71296ca2433</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
+          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-76a29ccbef984e5baca434051f89c562</t>
+          <t>https://www.notion.so/97-a4751e1dad9c4affb14aa693c3cdb64d</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
+          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-8f6acd2f75f84a60a7612f9c866fd510</t>
+          <t>https://www.notion.so/98-552383fe1f304ccaa812498242b4a1ee</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
+          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-a374f898aee846e7912646fcf92dad7e</t>
+          <t>https://www.notion.so/99-624858dc7da1484dae4b00213655e72e</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
+          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-c0bcf57b8e35442fa9aba57763c9e325</t>
+          <t>https://www.notion.so/100-6642a940268347538a561f7597e51291</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
+          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-ca7f48f1acec4d18bf23afe373dad0a1</t>
+          <t>https://www.notion.so/101-76a29ccbef984e5baca434051f89c562</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
+          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-eeefb431b3e140238150ed014fff47f7</t>
+          <t>https://www.notion.so/102-8f6acd2f75f84a60a7612f9c866fd510</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
+          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-f225669da15542ef8cdb31fd7a530ab8</t>
+          <t>https://www.notion.so/103-a374f898aee846e7912646fcf92dad7e</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
+          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-34b97b8c285b4d76bf9d1568f645d6c5</t>
+          <t>https://www.notion.so/104-c0bcf57b8e35442fa9aba57763c9e325</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5a18478d-a522-45c2-9e43-032974690527</t>
+          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-5a18478da52245c29e43032974690527</t>
+          <t>https://www.notion.so/105-ca7f48f1acec4d18bf23afe373dad0a1</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
+          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-650732c65fad4de7a252544d44b48650</t>
+          <t>https://www.notion.so/106-eeefb431b3e140238150ed014fff47f7</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
+          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-844ddd9f02b64958b1c89b53ce84cab6</t>
+          <t>https://www.notion.so/107-f225669da15542ef8cdb31fd7a530ab8</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
+          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
+          <t>https://www.notion.so/108-34b97b8c285b4d76bf9d1568f645d6c5</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
+          <t>5a18478d-a522-45c2-9e43-032974690527</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-90bebc722e01463d8665522d21d07808</t>
+          <t>https://www.notion.so/109-5a18478da52245c29e43032974690527</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
+          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-a675a1975fde48f0bd3da055d136af68</t>
+          <t>https://www.notion.so/110-650732c65fad4de7a252544d44b48650</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
+          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-bdf09569481c49b0a4e33ea1e03dd723</t>
+          <t>https://www.notion.so/111-844ddd9f02b64958b1c89b53ce84cab6</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
+          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-ec32e03e445d4553bb06b880d2cd2412</t>
+          <t>https://www.notion.so/112-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
+          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-f8405cf362b34ea19fa06440f290bed6</t>
+          <t>https://www.notion.so/113-90bebc722e01463d8665522d21d07808</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -23165,7 +23165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
+          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-1a86e25a53c646128e08b97c9dba0ec1</t>
+          <t>https://www.notion.so/114-a675a1975fde48f0bd3da055d136af68</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -23364,7 +23364,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
+          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-1f504c07c08148d59f0b4f793bd71da1</t>
+          <t>https://www.notion.so/115-bdf09569481c49b0a4e33ea1e03dd723</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
+          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.notion.so/116-728ff8a560cc4dcf9226efbea76ba060</t>
+          <t>https://www.notion.so/116-ec32e03e445d4553bb06b880d2cd2412</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
+          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.notion.so/117-7a7ae9a01b1640f1baf46d11089719e6</t>
+          <t>https://www.notion.so/117-f8405cf362b34ea19fa06440f290bed6</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
+          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.notion.so/118-88d14c183b0140549f4e8500ffac3be7</t>
+          <t>https://www.notion.so/118-1a86e25a53c646128e08b97c9dba0ec1</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
+          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.notion.so/119-b6645ed00f114a66bd0b0121269a6719</t>
+          <t>https://www.notion.so/119-1f504c07c08148d59f0b4f793bd71da1</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -24359,7 +24359,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>d68c8181-6b8f-47d1-a5ef-16898d85d474</t>
+          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24382,7 +24382,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.notion.so/120-d68c81816b8f47d1a5ef16898d85d474</t>
+          <t>https://www.notion.so/120-728ff8a560cc4dcf9226efbea76ba060</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -24558,7 +24558,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>0953f482-0768-4567-b934-8895a4aad9fe</t>
+          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.notion.so/121-0953f48207684567b9348895a4aad9fe</t>
+          <t>https://www.notion.so/121-7a7ae9a01b1640f1baf46d11089719e6</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -24757,7 +24757,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3e0faaad-22aa-462b-91d2-862efc98e0d0</t>
+          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.notion.so/122-3e0faaad22aa462b91d2862efc98e0d0</t>
+          <t>https://www.notion.so/122-88d14c183b0140549f4e8500ffac3be7</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>754d0ed9-6755-422b-9791-7da3049b0d8c</t>
+          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -24979,7 +24979,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.notion.so/123-754d0ed96755422b97917da3049b0d8c</t>
+          <t>https://www.notion.so/123-b6645ed00f114a66bd0b0121269a6719</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -25144,6 +25144,603 @@
       <c r="AU124" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '123', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '123', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>d68c8181-6b8f-47d1-a5ef-16898d85d474</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2024-06-25T09:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2024-07-18T16:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/124-d68c81816b8f47d1a5ef16898d85d474</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>f209a418-4aa2-4b65-9cfc-4a94b6af86b0</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>IynB</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S125" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>PSic</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W125" t="n">
+        <v>43800000</v>
+      </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>SvP%5E</t>
+        </is>
+      </c>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z125" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA125" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="AB125" t="inlineStr">
+        <is>
+          <t>V%3CuY</t>
+        </is>
+      </c>
+      <c r="AC125" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AD125" t="n">
+        <v>40800000</v>
+      </c>
+      <c r="AE125" t="inlineStr">
+        <is>
+          <t>%5Be%3DQ</t>
+        </is>
+      </c>
+      <c r="AF125" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AG125" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH125" t="inlineStr">
+        <is>
+          <t>ccio</t>
+        </is>
+      </c>
+      <c r="AI125" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AJ125" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="AK125" t="inlineStr"/>
+      <c r="AL125" t="inlineStr"/>
+      <c r="AM125" t="inlineStr">
+        <is>
+          <t>iRq%5E</t>
+        </is>
+      </c>
+      <c r="AN125" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO125" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="AP125" t="inlineStr">
+        <is>
+          <t>oNis</t>
+        </is>
+      </c>
+      <c r="AQ125" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR125" t="n">
+        <v>54300000</v>
+      </c>
+      <c r="AS125" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT125" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU125" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '124', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '124', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0953f482-0768-4567-b934-8895a4aad9fe</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2024-06-25T09:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2024-07-18T16:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/125-0953f48207684567b9348895a4aad9fe</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>f209a418-4aa2-4b65-9cfc-4a94b6af86b0</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>IynB</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S126" t="n">
+        <v>19980000</v>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>PSic</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W126" t="n">
+        <v>8370000</v>
+      </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>SvP%5E</t>
+        </is>
+      </c>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB126" t="inlineStr">
+        <is>
+          <t>V%3CuY</t>
+        </is>
+      </c>
+      <c r="AC126" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AD126" t="n">
+        <v>25350000</v>
+      </c>
+      <c r="AE126" t="inlineStr">
+        <is>
+          <t>%5Be%3DQ</t>
+        </is>
+      </c>
+      <c r="AF126" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AG126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH126" t="inlineStr">
+        <is>
+          <t>ccio</t>
+        </is>
+      </c>
+      <c r="AI126" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AJ126" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="AK126" t="inlineStr"/>
+      <c r="AL126" t="inlineStr"/>
+      <c r="AM126" t="inlineStr">
+        <is>
+          <t>iRq%5E</t>
+        </is>
+      </c>
+      <c r="AN126" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO126" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AP126" t="inlineStr">
+        <is>
+          <t>oNis</t>
+        </is>
+      </c>
+      <c r="AQ126" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR126" t="n">
+        <v>25350000</v>
+      </c>
+      <c r="AS126" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT126" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU126" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '125', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '125', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>3e0faaad-22aa-462b-91d2-862efc98e0d0</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2024-06-25T09:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2024-07-18T16:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/126-3e0faaad22aa462b91d2862efc98e0d0</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>f209a418-4aa2-4b65-9cfc-4a94b6af86b0</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>IynB</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S127" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>PSic</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W127" t="n">
+        <v>-1000000</v>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>SvP%5E</t>
+        </is>
+      </c>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z127" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB127" t="inlineStr">
+        <is>
+          <t>V%3CuY</t>
+        </is>
+      </c>
+      <c r="AC127" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE127" t="inlineStr">
+        <is>
+          <t>%5Be%3DQ</t>
+        </is>
+      </c>
+      <c r="AF127" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AG127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH127" t="inlineStr">
+        <is>
+          <t>ccio</t>
+        </is>
+      </c>
+      <c r="AI127" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="AK127" t="inlineStr"/>
+      <c r="AL127" t="inlineStr"/>
+      <c r="AM127" t="inlineStr">
+        <is>
+          <t>iRq%5E</t>
+        </is>
+      </c>
+      <c r="AN127" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP127" t="inlineStr">
+        <is>
+          <t>oNis</t>
+        </is>
+      </c>
+      <c r="AQ127" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS127" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT127" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU127" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '126', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '126', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -25165,7 +25165,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25364,7 +25364,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>

--- a/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU127"/>
+  <dimension ref="A1:AU128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9c92ffe1-64b7-4a07-8e5d-0eed447a2d19</t>
+          <t>bd704b63-0375-4954-9bbb-1c8ada21f9d0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-18T08:32:00.000Z</t>
+          <t>2024-07-19T11:16:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-9c92ffe164b74a078e5d0eed447a2d19</t>
+          <t>https://www.notion.so/1-bd704b63037549549bbb1c8ada21f9d0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>db5c8611-a0ec-48eb-9c22-4ab757ce3346</t>
+          <t>9c92ffe1-64b7-4a07-8e5d-0eed447a2d19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-17T17:36:00.000Z</t>
+          <t>2024-07-18T08:32:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-db5c8611a0ec48eb9c224ab757ce3346</t>
+          <t>https://www.notion.so/2-9c92ffe164b74a078e5d0eed447a2d19</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>42eafb70-bcc1-4d31-84bf-2619bd50ff35</t>
+          <t>db5c8611-a0ec-48eb-9c22-4ab757ce3346</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-42eafb70bcc14d3184bf2619bd50ff35</t>
+          <t>https://www.notion.so/3-db5c8611a0ec48eb9c224ab757ce3346</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>a7f4933d-55a3-4669-8c86-24e939f755e4</t>
+          <t>42eafb70-bcc1-4d31-84bf-2619bd50ff35</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-a7f4933d55a346698c8624e939f755e4</t>
+          <t>https://www.notion.so/4-42eafb70bcc14d3184bf2619bd50ff35</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8d6b7d26-4edc-4e68-a38e-7790fd01614c</t>
+          <t>a7f4933d-55a3-4669-8c86-24e939f755e4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-17T12:18:00.000Z</t>
+          <t>2024-07-17T17:36:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-8d6b7d264edc4e68a38e7790fd01614c</t>
+          <t>https://www.notion.so/5-a7f4933d55a346698c8624e939f755e4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>aaae0f51-4d85-4352-8801-b3fdc3f76c2e</t>
+          <t>8d6b7d26-4edc-4e68-a38e-7790fd01614c</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-15T05:35:00.000Z</t>
+          <t>2024-07-17T12:18:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-aaae0f514d8543528801b3fdc3f76c2e</t>
+          <t>https://www.notion.so/6-8d6b7d264edc4e68a38e7790fd01614c</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0617fdee-2b71-4953-b626-0f55f7915fd5</t>
+          <t>aaae0f51-4d85-4352-8801-b3fdc3f76c2e</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-14T05:02:00.000Z</t>
+          <t>2024-07-15T05:35:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-0617fdee2b714953b6260f55f7915fd5</t>
+          <t>https://www.notion.so/7-aaae0f514d8543528801b3fdc3f76c2e</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>97ddd288-bcfd-4956-9e45-669354aba2f6</t>
+          <t>0617fdee-2b71-4953-b626-0f55f7915fd5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-13T15:30:00.000Z</t>
+          <t>2024-07-14T05:02:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-97ddd288bcfd49569e45669354aba2f6</t>
+          <t>https://www.notion.so/8-0617fdee2b714953b6260f55f7915fd5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0730d559-ddf2-4fe7-885c-a504f9f28a9b</t>
+          <t>97ddd288-bcfd-4956-9e45-669354aba2f6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-12T03:28:00.000Z</t>
+          <t>2024-07-13T15:30:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-0730d559ddf24fe7885ca504f9f28a9b</t>
+          <t>https://www.notion.so/9-97ddd288bcfd49569e45669354aba2f6</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>c933e0eb-dd5b-470b-aec5-41fbc163f599</t>
+          <t>0730d559-ddf2-4fe7-885c-a504f9f28a9b</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-10T03:18:00.000Z</t>
+          <t>2024-07-12T03:28:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-c933e0ebdd5b470baec541fbc163f599</t>
+          <t>https://www.notion.so/10-0730d559ddf24fe7885ca504f9f28a9b</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ccdd307e-b18b-4ed6-9da0-b300e46092f4</t>
+          <t>c933e0eb-dd5b-470b-aec5-41fbc163f599</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-09T16:05:00.000Z</t>
+          <t>2024-07-10T03:18:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-ccdd307eb18b4ed69da0b300e46092f4</t>
+          <t>https://www.notion.so/11-c933e0ebdd5b470baec541fbc163f599</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7a0e8fe1-2018-470c-95fb-b8d82312e72a</t>
+          <t>ccdd307e-b18b-4ed6-9da0-b300e46092f4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-08T14:18:00.000Z</t>
+          <t>2024-07-09T16:05:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-7a0e8fe12018470c95fbb8d82312e72a</t>
+          <t>https://www.notion.so/12-ccdd307eb18b4ed69da0b300e46092f4</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8436b303-df7c-489c-989b-06cd1c2a9683</t>
+          <t>7a0e8fe1-2018-470c-95fb-b8d82312e72a</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-07T12:13:00.000Z</t>
+          <t>2024-07-08T14:18:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-8436b303df7c489c989b06cd1c2a9683</t>
+          <t>https://www.notion.so/13-7a0e8fe12018470c95fbb8d82312e72a</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6442fa01-562f-4103-9b01-8aa5741e4802</t>
+          <t>8436b303-df7c-489c-989b-06cd1c2a9683</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-6442fa01562f41039b018aa5741e4802</t>
+          <t>https://www.notion.so/14-8436b303df7c489c989b06cd1c2a9683</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
+          <t>6442fa01-562f-4103-9b01-8aa5741e4802</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-07-04T10:52:00.000Z</t>
+          <t>2024-07-07T12:13:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-5395834b61a2463b847fc7d1d0bed8f6</t>
+          <t>https://www.notion.so/15-6442fa01562f41039b018aa5741e4802</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
+          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-07-02T21:32:00.000Z</t>
+          <t>2024-07-04T10:52:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-e7a195146e0b4f84851f8eeef70f2fd7</t>
+          <t>https://www.notion.so/16-5395834b61a2463b847fc7d1d0bed8f6</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
+          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-07-02T16:37:00.000Z</t>
+          <t>2024-07-02T21:32:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-4e956c66c56d48e0a94e770f2a14fcd4</t>
+          <t>https://www.notion.so/17-e7a195146e0b4f84851f8eeef70f2fd7</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
+          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-07-01T14:25:00.000Z</t>
+          <t>2024-07-02T16:37:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-d916ccf252d34410be2c48b835b28092</t>
+          <t>https://www.notion.so/18-4e956c66c56d48e0a94e770f2a14fcd4</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,17 +4260,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
+          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-06-30T15:05:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-fe45d7bd6e8d4e758b41a545ca37284b</t>
+          <t>https://www.notion.so/19-d916ccf252d34410be2c48b835b28092</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
+          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-06-29T09:35:00.000Z</t>
+          <t>2024-06-30T15:05:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-a782c44e6bd94f6f97910d56f4701144</t>
+          <t>https://www.notion.so/20-fe45d7bd6e8d4e758b41a545ca37284b</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
+          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-28T13:59:00.000Z</t>
+          <t>2024-06-29T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-e55892c67e5c4da388234b7400a2c426</t>
+          <t>https://www.notion.so/21-a782c44e6bd94f6f97910d56f4701144</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,17 +4857,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
+          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-27T16:20:00.000Z</t>
+          <t>2024-06-28T13:59:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-34c450788cfd465b9ac12c592f485be9</t>
+          <t>https://www.notion.so/22-e55892c67e5c4da388234b7400a2c426</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
+          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-06-27T13:13:00.000Z</t>
+          <t>2024-06-27T16:20:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-7d5475d81cf94a31817577a91b1d6821</t>
+          <t>https://www.notion.so/23-34c450788cfd465b9ac12c592f485be9</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,17 +5255,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
+          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-06-27T02:14:00.000Z</t>
+          <t>2024-06-27T13:13:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-392b89e1e026401083b114dc8548c520</t>
+          <t>https://www.notion.so/24-7d5475d81cf94a31817577a91b1d6821</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,17 +5454,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
+          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-06-25T09:26:00.000Z</t>
+          <t>2024-06-27T02:14:00.000Z</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-2f84e5ec07e44b24b0bcef90e98b33d5</t>
+          <t>https://www.notion.so/25-392b89e1e026401083b114dc8548c520</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
+          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-52f91de14fd84c838e4d679d7bdcc881</t>
+          <t>https://www.notion.so/26-2f84e5ec07e44b24b0bcef90e98b33d5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
+          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-5a9e3a51f92846569ab98fd3f679bd7d</t>
+          <t>https://www.notion.so/27-52f91de14fd84c838e4d679d7bdcc881</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
+          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-4bc113ade36f4a5bb9c347f0d8fa9483</t>
+          <t>https://www.notion.so/28-5a9e3a51f92846569ab98fd3f679bd7d</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
+          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-59dbbce6813c4e81968ef894402a905c</t>
+          <t>https://www.notion.so/29-4bc113ade36f4a5bb9c347f0d8fa9483</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
+          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-5b3aba239f214c9590350a484156357e</t>
+          <t>https://www.notion.so/30-59dbbce6813c4e81968ef894402a905c</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
+          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-63f85e62af8c408e9daf5a9a6f2302fb</t>
+          <t>https://www.notion.so/31-5b3aba239f214c9590350a484156357e</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
+          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-737a5be1ee1541cb986e20a11a920b1e</t>
+          <t>https://www.notion.so/32-63f85e62af8c408e9daf5a9a6f2302fb</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
+          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
+          <t>https://www.notion.so/33-737a5be1ee1541cb986e20a11a920b1e</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
+          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-ccf9a743cf2c4219bac2a35ef088689b</t>
+          <t>https://www.notion.so/34-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
+          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-e773fe355b3f48a68cd11dafda818501</t>
+          <t>https://www.notion.so/35-ccf9a743cf2c4219bac2a35ef088689b</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
+          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-f9b3b690bbe040ebbd289e5d0336ff6f</t>
+          <t>https://www.notion.so/36-e773fe355b3f48a68cd11dafda818501</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
+          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-3e0543b78e4040d086c2d6e3118dbc93</t>
+          <t>https://www.notion.so/37-f9b3b690bbe040ebbd289e5d0336ff6f</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
+          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-53bb0ed6fdff4ac094552473d60b9dc6</t>
+          <t>https://www.notion.so/38-3e0543b78e4040d086c2d6e3118dbc93</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
+          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-63721adae1f9466b98495b6955c43a66</t>
+          <t>https://www.notion.so/39-53bb0ed6fdff4ac094552473d60b9dc6</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
+          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-772db640e3c54e5f89b5a8eb24f05039</t>
+          <t>https://www.notion.so/40-63721adae1f9466b98495b6955c43a66</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
+          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-78474f682686412fa1724b22a4f46958</t>
+          <t>https://www.notion.so/41-772db640e3c54e5f89b5a8eb24f05039</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
+          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-aa7b036608e44f5b9c2df00564f071b9</t>
+          <t>https://www.notion.so/42-78474f682686412fa1724b22a4f46958</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
+          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
+          <t>https://www.notion.so/43-aa7b036608e44f5b9c2df00564f071b9</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
+          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-b624a950bebd404f84634ddc4b83efa4</t>
+          <t>https://www.notion.so/44-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
+          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-e011e118d9a343749b4b6c5035d8d76a</t>
+          <t>https://www.notion.so/45-b624a950bebd404f84634ddc4b83efa4</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>06097b75-925b-488a-805c-597895a59893</t>
+          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-06097b75925b488a805c597895a59893</t>
+          <t>https://www.notion.so/46-e011e118d9a343749b4b6c5035d8d76a</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
+          <t>06097b75-925b-488a-805c-597895a59893</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
+          <t>https://www.notion.so/47-06097b75925b488a805c597895a59893</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
+          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-295a44f6ca9d4aa6865cbc97a63ed49f</t>
+          <t>https://www.notion.so/48-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
+          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-2fcd17a168234616b1f931622834ed19</t>
+          <t>https://www.notion.so/49-295a44f6ca9d4aa6865cbc97a63ed49f</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
+          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-39a4cf59c21f42c8ab12f22930737df2</t>
+          <t>https://www.notion.so/50-2fcd17a168234616b1f931622834ed19</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
+          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-5967f8063e81474fa3bb396088281bd4</t>
+          <t>https://www.notion.so/51-39a4cf59c21f42c8ab12f22930737df2</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
+          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-87f5309752064f52abc14594d8f162f0</t>
+          <t>https://www.notion.so/52-5967f8063e81474fa3bb396088281bd4</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
+          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-a9baec7a15a24b22b1a554d69ba8e6c2</t>
+          <t>https://www.notion.so/53-87f5309752064f52abc14594d8f162f0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
+          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-c745f5172a0044d2b498ac5356096152</t>
+          <t>https://www.notion.so/54-a9baec7a15a24b22b1a554d69ba8e6c2</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
+          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-df0fa5a9e54848fba152011b467e6375</t>
+          <t>https://www.notion.so/55-c745f5172a0044d2b498ac5356096152</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
+          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-06a83616f52f4b9a8b70d067cdaf3202</t>
+          <t>https://www.notion.so/56-df0fa5a9e54848fba152011b467e6375</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
+          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-39cce7dee402481e8ccfda8e68d43492</t>
+          <t>https://www.notion.so/57-06a83616f52f4b9a8b70d067cdaf3202</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
+          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-4bd23e8c6cd246659e5aff1d4e62af08</t>
+          <t>https://www.notion.so/58-39cce7dee402481e8ccfda8e68d43492</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
+          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-527f68635d16482fac74c9ba4d5a9143</t>
+          <t>https://www.notion.so/59-4bd23e8c6cd246659e5aff1d4e62af08</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
+          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-645a16b0358146c883c9c261d6fde312</t>
+          <t>https://www.notion.so/60-527f68635d16482fac74c9ba4d5a9143</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
+          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-6680b008e43b478e96820998b28925ff</t>
+          <t>https://www.notion.so/61-645a16b0358146c883c9c261d6fde312</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
+          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-9699d5ff48ac4bac975f130433367def</t>
+          <t>https://www.notion.so/62-6680b008e43b478e96820998b28925ff</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
+          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-d13e1708092c4557a80eff62b2a24643</t>
+          <t>https://www.notion.so/63-9699d5ff48ac4bac975f130433367def</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
+          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-ddf1942de6a34109899e2a6536bce1f8</t>
+          <t>https://www.notion.so/64-d13e1708092c4557a80eff62b2a24643</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
+          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-e3fee4c2d7a54377bb9b81a4d961c61c</t>
+          <t>https://www.notion.so/65-ddf1942de6a34109899e2a6536bce1f8</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
+          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-2af88d4623c84d95b76fc87a630b9054</t>
+          <t>https://www.notion.so/66-e3fee4c2d7a54377bb9b81a4d961c61c</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
+          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-347ec2e381c54a778fc7a8ac05867d60</t>
+          <t>https://www.notion.so/67-2af88d4623c84d95b76fc87a630b9054</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
+          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-3c5774ced68547909dcc601b516ca4af</t>
+          <t>https://www.notion.so/68-347ec2e381c54a778fc7a8ac05867d60</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
+          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-547c0b51453c4aa1a58774b6d5dd3f1a</t>
+          <t>https://www.notion.so/69-3c5774ced68547909dcc601b516ca4af</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
+          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-930db29f743a4c618e74c3b56ba5a0ce</t>
+          <t>https://www.notion.so/70-547c0b51453c4aa1a58774b6d5dd3f1a</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
+          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-b15c39801fdb479b8be4aa3d4e13a66c</t>
+          <t>https://www.notion.so/71-930db29f743a4c618e74c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
+          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
+          <t>https://www.notion.so/72-b15c39801fdb479b8be4aa3d4e13a66c</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
+          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-e3633d8d20f44321a192f5afa6e8d91f</t>
+          <t>https://www.notion.so/73-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
+          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-ea36dd0d73ea45809067c8f83143240a</t>
+          <t>https://www.notion.so/74-e3633d8d20f44321a192f5afa6e8d91f</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
+          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-0f4adb1b8c0648359cdb3d9649a277a9</t>
+          <t>https://www.notion.so/75-ea36dd0d73ea45809067c8f83143240a</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
+          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-2c3594a4e2ab4ca197daf3925855ad80</t>
+          <t>https://www.notion.so/76-0f4adb1b8c0648359cdb3d9649a277a9</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
+          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
+          <t>https://www.notion.so/77-2c3594a4e2ab4ca197daf3925855ad80</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
+          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-37d5b2f22a054c3e9cb85c9cbe744b00</t>
+          <t>https://www.notion.so/78-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
+          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-3f7c917797684c1c888528b8612459c2</t>
+          <t>https://www.notion.so/79-37d5b2f22a054c3e9cb85c9cbe744b00</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
+          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-58997e574bcb431397a8497e9d964980</t>
+          <t>https://www.notion.so/80-3f7c917797684c1c888528b8612459c2</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
+          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-779e4d4596fe43f3bec345641f68e7e4</t>
+          <t>https://www.notion.so/81-58997e574bcb431397a8497e9d964980</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
+          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-92b191de589d496595a70f646c4aac1f</t>
+          <t>https://www.notion.so/82-779e4d4596fe43f3bec345641f68e7e4</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
+          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-a19da822345e48159eaa47656dadde49</t>
+          <t>https://www.notion.so/83-92b191de589d496595a70f646c4aac1f</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
+          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-ccbc7c76c65e4060947ff54950f4d1f2</t>
+          <t>https://www.notion.so/84-a19da822345e48159eaa47656dadde49</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
+          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-f461d5da5dc040d09ee04c4a3e544174</t>
+          <t>https://www.notion.so/85-ccbc7c76c65e4060947ff54950f4d1f2</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
+          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-0e78e7b3ef2949468ad9c23a53b4da6c</t>
+          <t>https://www.notion.so/86-f461d5da5dc040d09ee04c4a3e544174</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
+          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-0efedcf0d5a1427b82ae489389a66625</t>
+          <t>https://www.notion.so/87-0e78e7b3ef2949468ad9c23a53b4da6c</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
+          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-2d3c378218cb4aaab48ee6efa4eb463f</t>
+          <t>https://www.notion.so/88-0efedcf0d5a1427b82ae489389a66625</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
+          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-43d05f1f3f764c35a56a0db0a57a724c</t>
+          <t>https://www.notion.so/89-2d3c378218cb4aaab48ee6efa4eb463f</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
+          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-777d34f48e434c2fb895bae3df7c2aad</t>
+          <t>https://www.notion.so/90-43d05f1f3f764c35a56a0db0a57a724c</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
+          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-b12efaee4b914d6e8a7f291ac8902ce0</t>
+          <t>https://www.notion.so/91-777d34f48e434c2fb895bae3df7c2aad</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
+          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-4ba858826e204c8cb5e0db4eb7dcb148</t>
+          <t>https://www.notion.so/92-b12efaee4b914d6e8a7f291ac8902ce0</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
+          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-516e5788099d4d99b4f94185ccacf13a</t>
+          <t>https://www.notion.so/93-4ba858826e204c8cb5e0db4eb7dcb148</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7068474c-c815-4317-af38-9720c3766e71</t>
+          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-7068474cc8154317af389720c3766e71</t>
+          <t>https://www.notion.so/94-516e5788099d4d99b4f94185ccacf13a</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
+          <t>7068474c-c815-4317-af38-9720c3766e71</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-73b1a91ae40b48a098c64b8294f410c3</t>
+          <t>https://www.notion.so/95-7068474cc8154317af389720c3766e71</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
+          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-97f9cfe2e9234ccfb370c71296ca2433</t>
+          <t>https://www.notion.so/96-73b1a91ae40b48a098c64b8294f410c3</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
+          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-a4751e1dad9c4affb14aa693c3cdb64d</t>
+          <t>https://www.notion.so/97-97f9cfe2e9234ccfb370c71296ca2433</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
+          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-552383fe1f304ccaa812498242b4a1ee</t>
+          <t>https://www.notion.so/98-a4751e1dad9c4affb14aa693c3cdb64d</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
+          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-624858dc7da1484dae4b00213655e72e</t>
+          <t>https://www.notion.so/99-552383fe1f304ccaa812498242b4a1ee</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
+          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-6642a940268347538a561f7597e51291</t>
+          <t>https://www.notion.so/100-624858dc7da1484dae4b00213655e72e</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
+          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-76a29ccbef984e5baca434051f89c562</t>
+          <t>https://www.notion.so/101-6642a940268347538a561f7597e51291</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
+          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-8f6acd2f75f84a60a7612f9c866fd510</t>
+          <t>https://www.notion.so/102-76a29ccbef984e5baca434051f89c562</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
+          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-a374f898aee846e7912646fcf92dad7e</t>
+          <t>https://www.notion.so/103-8f6acd2f75f84a60a7612f9c866fd510</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
+          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-c0bcf57b8e35442fa9aba57763c9e325</t>
+          <t>https://www.notion.so/104-a374f898aee846e7912646fcf92dad7e</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
+          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-ca7f48f1acec4d18bf23afe373dad0a1</t>
+          <t>https://www.notion.so/105-c0bcf57b8e35442fa9aba57763c9e325</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
+          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-eeefb431b3e140238150ed014fff47f7</t>
+          <t>https://www.notion.so/106-ca7f48f1acec4d18bf23afe373dad0a1</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
+          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-f225669da15542ef8cdb31fd7a530ab8</t>
+          <t>https://www.notion.so/107-eeefb431b3e140238150ed014fff47f7</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
+          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-34b97b8c285b4d76bf9d1568f645d6c5</t>
+          <t>https://www.notion.so/108-f225669da15542ef8cdb31fd7a530ab8</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5a18478d-a522-45c2-9e43-032974690527</t>
+          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-5a18478da52245c29e43032974690527</t>
+          <t>https://www.notion.so/109-34b97b8c285b4d76bf9d1568f645d6c5</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
+          <t>5a18478d-a522-45c2-9e43-032974690527</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-650732c65fad4de7a252544d44b48650</t>
+          <t>https://www.notion.so/110-5a18478da52245c29e43032974690527</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
+          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-844ddd9f02b64958b1c89b53ce84cab6</t>
+          <t>https://www.notion.so/111-650732c65fad4de7a252544d44b48650</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
+          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
+          <t>https://www.notion.so/112-844ddd9f02b64958b1c89b53ce84cab6</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
+          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-90bebc722e01463d8665522d21d07808</t>
+          <t>https://www.notion.so/113-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -23165,7 +23165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
+          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-a675a1975fde48f0bd3da055d136af68</t>
+          <t>https://www.notion.so/114-90bebc722e01463d8665522d21d07808</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -23364,7 +23364,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
+          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-bdf09569481c49b0a4e33ea1e03dd723</t>
+          <t>https://www.notion.so/115-a675a1975fde48f0bd3da055d136af68</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
+          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.notion.so/116-ec32e03e445d4553bb06b880d2cd2412</t>
+          <t>https://www.notion.so/116-bdf09569481c49b0a4e33ea1e03dd723</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
+          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.notion.so/117-f8405cf362b34ea19fa06440f290bed6</t>
+          <t>https://www.notion.so/117-ec32e03e445d4553bb06b880d2cd2412</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
+          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.notion.so/118-1a86e25a53c646128e08b97c9dba0ec1</t>
+          <t>https://www.notion.so/118-f8405cf362b34ea19fa06440f290bed6</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
+          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.notion.so/119-1f504c07c08148d59f0b4f793bd71da1</t>
+          <t>https://www.notion.so/119-1a86e25a53c646128e08b97c9dba0ec1</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -24359,7 +24359,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
+          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24382,7 +24382,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.notion.so/120-728ff8a560cc4dcf9226efbea76ba060</t>
+          <t>https://www.notion.so/120-1f504c07c08148d59f0b4f793bd71da1</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -24558,7 +24558,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
+          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.notion.so/121-7a7ae9a01b1640f1baf46d11089719e6</t>
+          <t>https://www.notion.so/121-728ff8a560cc4dcf9226efbea76ba060</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -24757,7 +24757,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
+          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.notion.so/122-88d14c183b0140549f4e8500ffac3be7</t>
+          <t>https://www.notion.so/122-7a7ae9a01b1640f1baf46d11089719e6</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
+          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -24979,7 +24979,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.notion.so/123-b6645ed00f114a66bd0b0121269a6719</t>
+          <t>https://www.notion.so/123-88d14c183b0140549f4e8500ffac3be7</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>d68c8181-6b8f-47d1-a5ef-16898d85d474</t>
+          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -25165,7 +25165,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.notion.so/124-d68c81816b8f47d1a5ef16898d85d474</t>
+          <t>https://www.notion.so/124-b6645ed00f114a66bd0b0121269a6719</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -25354,7 +25354,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>0953f482-0768-4567-b934-8895a4aad9fe</t>
+          <t>d68c8181-6b8f-47d1-a5ef-16898d85d474</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25377,7 +25377,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.notion.so/125-0953f48207684567b9348895a4aad9fe</t>
+          <t>https://www.notion.so/125-d68c81816b8f47d1a5ef16898d85d474</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>3e0faaad-22aa-462b-91d2-862efc98e0d0</t>
+          <t>0953f482-0768-4567-b934-8895a4aad9fe</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -25576,7 +25576,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.notion.so/126-3e0faaad22aa462b91d2862efc98e0d0</t>
+          <t>https://www.notion.so/126-0953f48207684567b9348895a4aad9fe</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -25741,6 +25741,205 @@
       <c r="AU127" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '126', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '126', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>3e0faaad-22aa-462b-91d2-862efc98e0d0</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2024-06-25T09:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2024-07-19T12:50:00.000Z</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/127-3e0faaad22aa462b91d2862efc98e0d0</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>f209a418-4aa2-4b65-9cfc-4a94b6af86b0</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>IynB</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S128" t="n">
+        <v>0</v>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>PSic</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W128" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>SvP%5E</t>
+        </is>
+      </c>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z128" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB128" t="inlineStr">
+        <is>
+          <t>V%3CuY</t>
+        </is>
+      </c>
+      <c r="AC128" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AD128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE128" t="inlineStr">
+        <is>
+          <t>%5Be%3DQ</t>
+        </is>
+      </c>
+      <c r="AF128" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AG128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH128" t="inlineStr">
+        <is>
+          <t>ccio</t>
+        </is>
+      </c>
+      <c r="AI128" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AJ128" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="AK128" t="inlineStr"/>
+      <c r="AL128" t="inlineStr"/>
+      <c r="AM128" t="inlineStr">
+        <is>
+          <t>iRq%5E</t>
+        </is>
+      </c>
+      <c r="AN128" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO128" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="AP128" t="inlineStr">
+        <is>
+          <t>oNis</t>
+        </is>
+      </c>
+      <c r="AQ128" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS128" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT128" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU128" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '127', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '127', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU128"/>
+  <dimension ref="A1:AU129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bd704b63-0375-4954-9bbb-1c8ada21f9d0</t>
+          <t>b082e00e-ddd2-4bb2-8b05-445bca368ce8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-19T11:16:00.000Z</t>
+          <t>2024-07-20T09:29:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-bd704b63037549549bbb1c8ada21f9d0</t>
+          <t>https://www.notion.so/1-b082e00eddd24bb28b05445bca368ce8</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9c92ffe1-64b7-4a07-8e5d-0eed447a2d19</t>
+          <t>bd704b63-0375-4954-9bbb-1c8ada21f9d0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-18T08:32:00.000Z</t>
+          <t>2024-07-19T11:16:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-9c92ffe164b74a078e5d0eed447a2d19</t>
+          <t>https://www.notion.so/2-bd704b63037549549bbb1c8ada21f9d0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>db5c8611-a0ec-48eb-9c22-4ab757ce3346</t>
+          <t>9c92ffe1-64b7-4a07-8e5d-0eed447a2d19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-17T17:36:00.000Z</t>
+          <t>2024-07-18T08:32:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-db5c8611a0ec48eb9c224ab757ce3346</t>
+          <t>https://www.notion.so/3-9c92ffe164b74a078e5d0eed447a2d19</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42eafb70-bcc1-4d31-84bf-2619bd50ff35</t>
+          <t>db5c8611-a0ec-48eb-9c22-4ab757ce3346</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-42eafb70bcc14d3184bf2619bd50ff35</t>
+          <t>https://www.notion.so/4-db5c8611a0ec48eb9c224ab757ce3346</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>a7f4933d-55a3-4669-8c86-24e939f755e4</t>
+          <t>42eafb70-bcc1-4d31-84bf-2619bd50ff35</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-a7f4933d55a346698c8624e939f755e4</t>
+          <t>https://www.notion.so/5-42eafb70bcc14d3184bf2619bd50ff35</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8d6b7d26-4edc-4e68-a38e-7790fd01614c</t>
+          <t>a7f4933d-55a3-4669-8c86-24e939f755e4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-17T12:18:00.000Z</t>
+          <t>2024-07-17T17:36:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-8d6b7d264edc4e68a38e7790fd01614c</t>
+          <t>https://www.notion.so/6-a7f4933d55a346698c8624e939f755e4</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>aaae0f51-4d85-4352-8801-b3fdc3f76c2e</t>
+          <t>8d6b7d26-4edc-4e68-a38e-7790fd01614c</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-15T05:35:00.000Z</t>
+          <t>2024-07-17T12:18:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-aaae0f514d8543528801b3fdc3f76c2e</t>
+          <t>https://www.notion.so/7-8d6b7d264edc4e68a38e7790fd01614c</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0617fdee-2b71-4953-b626-0f55f7915fd5</t>
+          <t>aaae0f51-4d85-4352-8801-b3fdc3f76c2e</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-14T05:02:00.000Z</t>
+          <t>2024-07-15T05:35:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-0617fdee2b714953b6260f55f7915fd5</t>
+          <t>https://www.notion.so/8-aaae0f514d8543528801b3fdc3f76c2e</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>97ddd288-bcfd-4956-9e45-669354aba2f6</t>
+          <t>0617fdee-2b71-4953-b626-0f55f7915fd5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-13T15:30:00.000Z</t>
+          <t>2024-07-14T05:02:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-97ddd288bcfd49569e45669354aba2f6</t>
+          <t>https://www.notion.so/9-0617fdee2b714953b6260f55f7915fd5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0730d559-ddf2-4fe7-885c-a504f9f28a9b</t>
+          <t>97ddd288-bcfd-4956-9e45-669354aba2f6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-12T03:28:00.000Z</t>
+          <t>2024-07-13T15:30:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-0730d559ddf24fe7885ca504f9f28a9b</t>
+          <t>https://www.notion.so/10-97ddd288bcfd49569e45669354aba2f6</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>c933e0eb-dd5b-470b-aec5-41fbc163f599</t>
+          <t>0730d559-ddf2-4fe7-885c-a504f9f28a9b</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-10T03:18:00.000Z</t>
+          <t>2024-07-12T03:28:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-c933e0ebdd5b470baec541fbc163f599</t>
+          <t>https://www.notion.so/11-0730d559ddf24fe7885ca504f9f28a9b</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ccdd307e-b18b-4ed6-9da0-b300e46092f4</t>
+          <t>c933e0eb-dd5b-470b-aec5-41fbc163f599</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-09T16:05:00.000Z</t>
+          <t>2024-07-10T03:18:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-ccdd307eb18b4ed69da0b300e46092f4</t>
+          <t>https://www.notion.so/12-c933e0ebdd5b470baec541fbc163f599</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7a0e8fe1-2018-470c-95fb-b8d82312e72a</t>
+          <t>ccdd307e-b18b-4ed6-9da0-b300e46092f4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-08T14:18:00.000Z</t>
+          <t>2024-07-09T16:05:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-7a0e8fe12018470c95fbb8d82312e72a</t>
+          <t>https://www.notion.so/13-ccdd307eb18b4ed69da0b300e46092f4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8436b303-df7c-489c-989b-06cd1c2a9683</t>
+          <t>7a0e8fe1-2018-470c-95fb-b8d82312e72a</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-07T12:13:00.000Z</t>
+          <t>2024-07-08T14:18:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-8436b303df7c489c989b06cd1c2a9683</t>
+          <t>https://www.notion.so/14-7a0e8fe12018470c95fbb8d82312e72a</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6442fa01-562f-4103-9b01-8aa5741e4802</t>
+          <t>8436b303-df7c-489c-989b-06cd1c2a9683</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-6442fa01562f41039b018aa5741e4802</t>
+          <t>https://www.notion.so/15-8436b303df7c489c989b06cd1c2a9683</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
+          <t>6442fa01-562f-4103-9b01-8aa5741e4802</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-07-04T10:52:00.000Z</t>
+          <t>2024-07-07T12:13:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-5395834b61a2463b847fc7d1d0bed8f6</t>
+          <t>https://www.notion.so/16-6442fa01562f41039b018aa5741e4802</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
+          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-07-02T21:32:00.000Z</t>
+          <t>2024-07-04T10:52:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-e7a195146e0b4f84851f8eeef70f2fd7</t>
+          <t>https://www.notion.so/17-5395834b61a2463b847fc7d1d0bed8f6</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
+          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-07-02T16:37:00.000Z</t>
+          <t>2024-07-02T21:32:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-4e956c66c56d48e0a94e770f2a14fcd4</t>
+          <t>https://www.notion.so/18-e7a195146e0b4f84851f8eeef70f2fd7</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,17 +4260,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
+          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-07-01T14:25:00.000Z</t>
+          <t>2024-07-02T16:37:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-d916ccf252d34410be2c48b835b28092</t>
+          <t>https://www.notion.so/19-4e956c66c56d48e0a94e770f2a14fcd4</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
+          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-06-30T15:05:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-fe45d7bd6e8d4e758b41a545ca37284b</t>
+          <t>https://www.notion.so/20-d916ccf252d34410be2c48b835b28092</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
+          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-29T09:35:00.000Z</t>
+          <t>2024-06-30T15:05:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-a782c44e6bd94f6f97910d56f4701144</t>
+          <t>https://www.notion.so/21-fe45d7bd6e8d4e758b41a545ca37284b</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,17 +4857,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
+          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-28T13:59:00.000Z</t>
+          <t>2024-06-29T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-e55892c67e5c4da388234b7400a2c426</t>
+          <t>https://www.notion.so/22-a782c44e6bd94f6f97910d56f4701144</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
+          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-06-27T16:20:00.000Z</t>
+          <t>2024-06-28T13:59:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-34c450788cfd465b9ac12c592f485be9</t>
+          <t>https://www.notion.so/23-e55892c67e5c4da388234b7400a2c426</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,17 +5255,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
+          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-06-27T13:13:00.000Z</t>
+          <t>2024-06-27T16:20:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-7d5475d81cf94a31817577a91b1d6821</t>
+          <t>https://www.notion.so/24-34c450788cfd465b9ac12c592f485be9</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,17 +5454,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
+          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-06-27T02:14:00.000Z</t>
+          <t>2024-06-27T13:13:00.000Z</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-392b89e1e026401083b114dc8548c520</t>
+          <t>https://www.notion.so/25-7d5475d81cf94a31817577a91b1d6821</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,17 +5653,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
+          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-06-25T09:26:00.000Z</t>
+          <t>2024-06-27T02:14:00.000Z</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-2f84e5ec07e44b24b0bcef90e98b33d5</t>
+          <t>https://www.notion.so/26-392b89e1e026401083b114dc8548c520</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
+          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-52f91de14fd84c838e4d679d7bdcc881</t>
+          <t>https://www.notion.so/27-2f84e5ec07e44b24b0bcef90e98b33d5</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
+          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-5a9e3a51f92846569ab98fd3f679bd7d</t>
+          <t>https://www.notion.so/28-52f91de14fd84c838e4d679d7bdcc881</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
+          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-4bc113ade36f4a5bb9c347f0d8fa9483</t>
+          <t>https://www.notion.so/29-5a9e3a51f92846569ab98fd3f679bd7d</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
+          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-59dbbce6813c4e81968ef894402a905c</t>
+          <t>https://www.notion.so/30-4bc113ade36f4a5bb9c347f0d8fa9483</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
+          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-5b3aba239f214c9590350a484156357e</t>
+          <t>https://www.notion.so/31-59dbbce6813c4e81968ef894402a905c</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
+          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-63f85e62af8c408e9daf5a9a6f2302fb</t>
+          <t>https://www.notion.so/32-5b3aba239f214c9590350a484156357e</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
+          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-737a5be1ee1541cb986e20a11a920b1e</t>
+          <t>https://www.notion.so/33-63f85e62af8c408e9daf5a9a6f2302fb</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
+          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
+          <t>https://www.notion.so/34-737a5be1ee1541cb986e20a11a920b1e</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
+          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-ccf9a743cf2c4219bac2a35ef088689b</t>
+          <t>https://www.notion.so/35-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
+          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-e773fe355b3f48a68cd11dafda818501</t>
+          <t>https://www.notion.so/36-ccf9a743cf2c4219bac2a35ef088689b</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
+          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-f9b3b690bbe040ebbd289e5d0336ff6f</t>
+          <t>https://www.notion.so/37-e773fe355b3f48a68cd11dafda818501</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
+          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-3e0543b78e4040d086c2d6e3118dbc93</t>
+          <t>https://www.notion.so/38-f9b3b690bbe040ebbd289e5d0336ff6f</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
+          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-53bb0ed6fdff4ac094552473d60b9dc6</t>
+          <t>https://www.notion.so/39-3e0543b78e4040d086c2d6e3118dbc93</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
+          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-63721adae1f9466b98495b6955c43a66</t>
+          <t>https://www.notion.so/40-53bb0ed6fdff4ac094552473d60b9dc6</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
+          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-772db640e3c54e5f89b5a8eb24f05039</t>
+          <t>https://www.notion.so/41-63721adae1f9466b98495b6955c43a66</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
+          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-78474f682686412fa1724b22a4f46958</t>
+          <t>https://www.notion.so/42-772db640e3c54e5f89b5a8eb24f05039</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
+          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-aa7b036608e44f5b9c2df00564f071b9</t>
+          <t>https://www.notion.so/43-78474f682686412fa1724b22a4f46958</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
+          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
+          <t>https://www.notion.so/44-aa7b036608e44f5b9c2df00564f071b9</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
+          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-b624a950bebd404f84634ddc4b83efa4</t>
+          <t>https://www.notion.so/45-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
+          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-e011e118d9a343749b4b6c5035d8d76a</t>
+          <t>https://www.notion.so/46-b624a950bebd404f84634ddc4b83efa4</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06097b75-925b-488a-805c-597895a59893</t>
+          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-06097b75925b488a805c597895a59893</t>
+          <t>https://www.notion.so/47-e011e118d9a343749b4b6c5035d8d76a</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
+          <t>06097b75-925b-488a-805c-597895a59893</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
+          <t>https://www.notion.so/48-06097b75925b488a805c597895a59893</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
+          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-295a44f6ca9d4aa6865cbc97a63ed49f</t>
+          <t>https://www.notion.so/49-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
+          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-2fcd17a168234616b1f931622834ed19</t>
+          <t>https://www.notion.so/50-295a44f6ca9d4aa6865cbc97a63ed49f</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
+          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-39a4cf59c21f42c8ab12f22930737df2</t>
+          <t>https://www.notion.so/51-2fcd17a168234616b1f931622834ed19</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
+          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-5967f8063e81474fa3bb396088281bd4</t>
+          <t>https://www.notion.so/52-39a4cf59c21f42c8ab12f22930737df2</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
+          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-87f5309752064f52abc14594d8f162f0</t>
+          <t>https://www.notion.so/53-5967f8063e81474fa3bb396088281bd4</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
+          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-a9baec7a15a24b22b1a554d69ba8e6c2</t>
+          <t>https://www.notion.so/54-87f5309752064f52abc14594d8f162f0</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
+          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-c745f5172a0044d2b498ac5356096152</t>
+          <t>https://www.notion.so/55-a9baec7a15a24b22b1a554d69ba8e6c2</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
+          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-df0fa5a9e54848fba152011b467e6375</t>
+          <t>https://www.notion.so/56-c745f5172a0044d2b498ac5356096152</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
+          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-06a83616f52f4b9a8b70d067cdaf3202</t>
+          <t>https://www.notion.so/57-df0fa5a9e54848fba152011b467e6375</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
+          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-39cce7dee402481e8ccfda8e68d43492</t>
+          <t>https://www.notion.so/58-06a83616f52f4b9a8b70d067cdaf3202</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
+          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-4bd23e8c6cd246659e5aff1d4e62af08</t>
+          <t>https://www.notion.so/59-39cce7dee402481e8ccfda8e68d43492</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
+          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-527f68635d16482fac74c9ba4d5a9143</t>
+          <t>https://www.notion.so/60-4bd23e8c6cd246659e5aff1d4e62af08</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
+          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-645a16b0358146c883c9c261d6fde312</t>
+          <t>https://www.notion.so/61-527f68635d16482fac74c9ba4d5a9143</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
+          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-6680b008e43b478e96820998b28925ff</t>
+          <t>https://www.notion.so/62-645a16b0358146c883c9c261d6fde312</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
+          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-9699d5ff48ac4bac975f130433367def</t>
+          <t>https://www.notion.so/63-6680b008e43b478e96820998b28925ff</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
+          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-d13e1708092c4557a80eff62b2a24643</t>
+          <t>https://www.notion.so/64-9699d5ff48ac4bac975f130433367def</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
+          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-ddf1942de6a34109899e2a6536bce1f8</t>
+          <t>https://www.notion.so/65-d13e1708092c4557a80eff62b2a24643</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
+          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-e3fee4c2d7a54377bb9b81a4d961c61c</t>
+          <t>https://www.notion.so/66-ddf1942de6a34109899e2a6536bce1f8</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
+          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-2af88d4623c84d95b76fc87a630b9054</t>
+          <t>https://www.notion.so/67-e3fee4c2d7a54377bb9b81a4d961c61c</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
+          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-347ec2e381c54a778fc7a8ac05867d60</t>
+          <t>https://www.notion.so/68-2af88d4623c84d95b76fc87a630b9054</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
+          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-3c5774ced68547909dcc601b516ca4af</t>
+          <t>https://www.notion.so/69-347ec2e381c54a778fc7a8ac05867d60</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
+          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-547c0b51453c4aa1a58774b6d5dd3f1a</t>
+          <t>https://www.notion.so/70-3c5774ced68547909dcc601b516ca4af</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
+          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-930db29f743a4c618e74c3b56ba5a0ce</t>
+          <t>https://www.notion.so/71-547c0b51453c4aa1a58774b6d5dd3f1a</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
+          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-b15c39801fdb479b8be4aa3d4e13a66c</t>
+          <t>https://www.notion.so/72-930db29f743a4c618e74c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
+          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
+          <t>https://www.notion.so/73-b15c39801fdb479b8be4aa3d4e13a66c</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
+          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-e3633d8d20f44321a192f5afa6e8d91f</t>
+          <t>https://www.notion.so/74-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
+          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-ea36dd0d73ea45809067c8f83143240a</t>
+          <t>https://www.notion.so/75-e3633d8d20f44321a192f5afa6e8d91f</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
+          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-0f4adb1b8c0648359cdb3d9649a277a9</t>
+          <t>https://www.notion.so/76-ea36dd0d73ea45809067c8f83143240a</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
+          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-2c3594a4e2ab4ca197daf3925855ad80</t>
+          <t>https://www.notion.so/77-0f4adb1b8c0648359cdb3d9649a277a9</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
+          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
+          <t>https://www.notion.so/78-2c3594a4e2ab4ca197daf3925855ad80</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
+          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-37d5b2f22a054c3e9cb85c9cbe744b00</t>
+          <t>https://www.notion.so/79-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
+          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-3f7c917797684c1c888528b8612459c2</t>
+          <t>https://www.notion.so/80-37d5b2f22a054c3e9cb85c9cbe744b00</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
+          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-58997e574bcb431397a8497e9d964980</t>
+          <t>https://www.notion.so/81-3f7c917797684c1c888528b8612459c2</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
+          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-779e4d4596fe43f3bec345641f68e7e4</t>
+          <t>https://www.notion.so/82-58997e574bcb431397a8497e9d964980</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
+          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-92b191de589d496595a70f646c4aac1f</t>
+          <t>https://www.notion.so/83-779e4d4596fe43f3bec345641f68e7e4</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
+          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-a19da822345e48159eaa47656dadde49</t>
+          <t>https://www.notion.so/84-92b191de589d496595a70f646c4aac1f</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
+          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-ccbc7c76c65e4060947ff54950f4d1f2</t>
+          <t>https://www.notion.so/85-a19da822345e48159eaa47656dadde49</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
+          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-f461d5da5dc040d09ee04c4a3e544174</t>
+          <t>https://www.notion.so/86-ccbc7c76c65e4060947ff54950f4d1f2</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
+          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-0e78e7b3ef2949468ad9c23a53b4da6c</t>
+          <t>https://www.notion.so/87-f461d5da5dc040d09ee04c4a3e544174</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
+          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-0efedcf0d5a1427b82ae489389a66625</t>
+          <t>https://www.notion.so/88-0e78e7b3ef2949468ad9c23a53b4da6c</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
+          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-2d3c378218cb4aaab48ee6efa4eb463f</t>
+          <t>https://www.notion.so/89-0efedcf0d5a1427b82ae489389a66625</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
+          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-43d05f1f3f764c35a56a0db0a57a724c</t>
+          <t>https://www.notion.so/90-2d3c378218cb4aaab48ee6efa4eb463f</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
+          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-777d34f48e434c2fb895bae3df7c2aad</t>
+          <t>https://www.notion.so/91-43d05f1f3f764c35a56a0db0a57a724c</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
+          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-b12efaee4b914d6e8a7f291ac8902ce0</t>
+          <t>https://www.notion.so/92-777d34f48e434c2fb895bae3df7c2aad</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
+          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-4ba858826e204c8cb5e0db4eb7dcb148</t>
+          <t>https://www.notion.so/93-b12efaee4b914d6e8a7f291ac8902ce0</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
+          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-516e5788099d4d99b4f94185ccacf13a</t>
+          <t>https://www.notion.so/94-4ba858826e204c8cb5e0db4eb7dcb148</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7068474c-c815-4317-af38-9720c3766e71</t>
+          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-7068474cc8154317af389720c3766e71</t>
+          <t>https://www.notion.so/95-516e5788099d4d99b4f94185ccacf13a</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
+          <t>7068474c-c815-4317-af38-9720c3766e71</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-73b1a91ae40b48a098c64b8294f410c3</t>
+          <t>https://www.notion.so/96-7068474cc8154317af389720c3766e71</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
+          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-97f9cfe2e9234ccfb370c71296ca2433</t>
+          <t>https://www.notion.so/97-73b1a91ae40b48a098c64b8294f410c3</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
+          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-a4751e1dad9c4affb14aa693c3cdb64d</t>
+          <t>https://www.notion.so/98-97f9cfe2e9234ccfb370c71296ca2433</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
+          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-552383fe1f304ccaa812498242b4a1ee</t>
+          <t>https://www.notion.so/99-a4751e1dad9c4affb14aa693c3cdb64d</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
+          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-624858dc7da1484dae4b00213655e72e</t>
+          <t>https://www.notion.so/100-552383fe1f304ccaa812498242b4a1ee</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
+          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-6642a940268347538a561f7597e51291</t>
+          <t>https://www.notion.so/101-624858dc7da1484dae4b00213655e72e</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
+          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-76a29ccbef984e5baca434051f89c562</t>
+          <t>https://www.notion.so/102-6642a940268347538a561f7597e51291</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
+          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-8f6acd2f75f84a60a7612f9c866fd510</t>
+          <t>https://www.notion.so/103-76a29ccbef984e5baca434051f89c562</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
+          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-a374f898aee846e7912646fcf92dad7e</t>
+          <t>https://www.notion.so/104-8f6acd2f75f84a60a7612f9c866fd510</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
+          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-c0bcf57b8e35442fa9aba57763c9e325</t>
+          <t>https://www.notion.so/105-a374f898aee846e7912646fcf92dad7e</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
+          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-ca7f48f1acec4d18bf23afe373dad0a1</t>
+          <t>https://www.notion.so/106-c0bcf57b8e35442fa9aba57763c9e325</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
+          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-eeefb431b3e140238150ed014fff47f7</t>
+          <t>https://www.notion.so/107-ca7f48f1acec4d18bf23afe373dad0a1</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
+          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-f225669da15542ef8cdb31fd7a530ab8</t>
+          <t>https://www.notion.so/108-eeefb431b3e140238150ed014fff47f7</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
+          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-34b97b8c285b4d76bf9d1568f645d6c5</t>
+          <t>https://www.notion.so/109-f225669da15542ef8cdb31fd7a530ab8</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5a18478d-a522-45c2-9e43-032974690527</t>
+          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-5a18478da52245c29e43032974690527</t>
+          <t>https://www.notion.so/110-34b97b8c285b4d76bf9d1568f645d6c5</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
+          <t>5a18478d-a522-45c2-9e43-032974690527</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-650732c65fad4de7a252544d44b48650</t>
+          <t>https://www.notion.so/111-5a18478da52245c29e43032974690527</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
+          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-844ddd9f02b64958b1c89b53ce84cab6</t>
+          <t>https://www.notion.so/112-650732c65fad4de7a252544d44b48650</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
+          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
+          <t>https://www.notion.so/113-844ddd9f02b64958b1c89b53ce84cab6</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -23165,7 +23165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
+          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-90bebc722e01463d8665522d21d07808</t>
+          <t>https://www.notion.so/114-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -23364,7 +23364,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
+          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-a675a1975fde48f0bd3da055d136af68</t>
+          <t>https://www.notion.so/115-90bebc722e01463d8665522d21d07808</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
+          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.notion.so/116-bdf09569481c49b0a4e33ea1e03dd723</t>
+          <t>https://www.notion.so/116-a675a1975fde48f0bd3da055d136af68</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
+          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.notion.so/117-ec32e03e445d4553bb06b880d2cd2412</t>
+          <t>https://www.notion.so/117-bdf09569481c49b0a4e33ea1e03dd723</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
+          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.notion.so/118-f8405cf362b34ea19fa06440f290bed6</t>
+          <t>https://www.notion.so/118-ec32e03e445d4553bb06b880d2cd2412</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
+          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.notion.so/119-1a86e25a53c646128e08b97c9dba0ec1</t>
+          <t>https://www.notion.so/119-f8405cf362b34ea19fa06440f290bed6</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -24359,7 +24359,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
+          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24382,7 +24382,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.notion.so/120-1f504c07c08148d59f0b4f793bd71da1</t>
+          <t>https://www.notion.so/120-1a86e25a53c646128e08b97c9dba0ec1</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -24558,7 +24558,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
+          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.notion.so/121-728ff8a560cc4dcf9226efbea76ba060</t>
+          <t>https://www.notion.so/121-1f504c07c08148d59f0b4f793bd71da1</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -24757,7 +24757,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
+          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.notion.so/122-7a7ae9a01b1640f1baf46d11089719e6</t>
+          <t>https://www.notion.so/122-728ff8a560cc4dcf9226efbea76ba060</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
+          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -24979,7 +24979,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.notion.so/123-88d14c183b0140549f4e8500ffac3be7</t>
+          <t>https://www.notion.so/123-7a7ae9a01b1640f1baf46d11089719e6</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
+          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -25165,7 +25165,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.notion.so/124-b6645ed00f114a66bd0b0121269a6719</t>
+          <t>https://www.notion.so/124-88d14c183b0140549f4e8500ffac3be7</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -25354,7 +25354,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>d68c8181-6b8f-47d1-a5ef-16898d85d474</t>
+          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25377,7 +25377,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.notion.so/125-d68c81816b8f47d1a5ef16898d85d474</t>
+          <t>https://www.notion.so/125-b6645ed00f114a66bd0b0121269a6719</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>0953f482-0768-4567-b934-8895a4aad9fe</t>
+          <t>d68c8181-6b8f-47d1-a5ef-16898d85d474</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -25576,7 +25576,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.notion.so/126-0953f48207684567b9348895a4aad9fe</t>
+          <t>https://www.notion.so/126-d68c81816b8f47d1a5ef16898d85d474</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -25752,7 +25752,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3e0faaad-22aa-462b-91d2-862efc98e0d0</t>
+          <t>0953f482-0768-4567-b934-8895a4aad9fe</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -25762,7 +25762,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -25775,7 +25775,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.notion.so/127-3e0faaad22aa462b91d2862efc98e0d0</t>
+          <t>https://www.notion.so/127-0953f48207684567b9348895a4aad9fe</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -25820,7 +25820,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         </is>
       </c>
       <c r="W128" t="n">
-        <v>9000000</v>
+        <v>7400000</v>
       </c>
       <c r="X128" t="inlineStr">
         <is>
@@ -25940,6 +25940,205 @@
       <c r="AU128" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '127', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '127', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>3e0faaad-22aa-462b-91d2-862efc98e0d0</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2024-06-25T09:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2024-07-20T13:37:00.000Z</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/128-3e0faaad22aa462b91d2862efc98e0d0</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>f209a418-4aa2-4b65-9cfc-4a94b6af86b0</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>IynB</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S129" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>PSic</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W129" t="n">
+        <v>-1000000</v>
+      </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>SvP%5E</t>
+        </is>
+      </c>
+      <c r="Y129" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z129" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB129" t="inlineStr">
+        <is>
+          <t>V%3CuY</t>
+        </is>
+      </c>
+      <c r="AC129" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AD129" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AE129" t="inlineStr">
+        <is>
+          <t>%5Be%3DQ</t>
+        </is>
+      </c>
+      <c r="AF129" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AG129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH129" t="inlineStr">
+        <is>
+          <t>ccio</t>
+        </is>
+      </c>
+      <c r="AI129" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AJ129" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="AK129" t="inlineStr"/>
+      <c r="AL129" t="inlineStr"/>
+      <c r="AM129" t="inlineStr">
+        <is>
+          <t>iRq%5E</t>
+        </is>
+      </c>
+      <c r="AN129" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP129" t="inlineStr">
+        <is>
+          <t>oNis</t>
+        </is>
+      </c>
+      <c r="AQ129" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR129" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AS129" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT129" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU129" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '128', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '128', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
+++ b/notion_data/LUY_KE_NGAY_CAN_THO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU129"/>
+  <dimension ref="A1:AU130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>b082e00e-ddd2-4bb2-8b05-445bca368ce8</t>
+          <t>347553b9-8b91-4fee-bb08-ce733114339a</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-20T09:29:00.000Z</t>
+          <t>2024-07-21T11:23:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-b082e00eddd24bb28b05445bca368ce8</t>
+          <t>https://www.notion.so/1-347553b98b914feebb08ce733114339a</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bd704b63-0375-4954-9bbb-1c8ada21f9d0</t>
+          <t>b082e00e-ddd2-4bb2-8b05-445bca368ce8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-19T11:16:00.000Z</t>
+          <t>2024-07-20T09:29:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-bd704b63037549549bbb1c8ada21f9d0</t>
+          <t>https://www.notion.so/2-b082e00eddd24bb28b05445bca368ce8</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9c92ffe1-64b7-4a07-8e5d-0eed447a2d19</t>
+          <t>bd704b63-0375-4954-9bbb-1c8ada21f9d0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-18T08:32:00.000Z</t>
+          <t>2024-07-19T11:16:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-9c92ffe164b74a078e5d0eed447a2d19</t>
+          <t>https://www.notion.so/3-bd704b63037549549bbb1c8ada21f9d0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>db5c8611-a0ec-48eb-9c22-4ab757ce3346</t>
+          <t>9c92ffe1-64b7-4a07-8e5d-0eed447a2d19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-17T17:36:00.000Z</t>
+          <t>2024-07-18T08:32:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-db5c8611a0ec48eb9c224ab757ce3346</t>
+          <t>https://www.notion.so/4-9c92ffe164b74a078e5d0eed447a2d19</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>42eafb70-bcc1-4d31-84bf-2619bd50ff35</t>
+          <t>db5c8611-a0ec-48eb-9c22-4ab757ce3346</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-42eafb70bcc14d3184bf2619bd50ff35</t>
+          <t>https://www.notion.so/5-db5c8611a0ec48eb9c224ab757ce3346</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>a7f4933d-55a3-4669-8c86-24e939f755e4</t>
+          <t>42eafb70-bcc1-4d31-84bf-2619bd50ff35</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-a7f4933d55a346698c8624e939f755e4</t>
+          <t>https://www.notion.so/6-42eafb70bcc14d3184bf2619bd50ff35</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8d6b7d26-4edc-4e68-a38e-7790fd01614c</t>
+          <t>a7f4933d-55a3-4669-8c86-24e939f755e4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-17T12:18:00.000Z</t>
+          <t>2024-07-17T17:36:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-8d6b7d264edc4e68a38e7790fd01614c</t>
+          <t>https://www.notion.so/7-a7f4933d55a346698c8624e939f755e4</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>aaae0f51-4d85-4352-8801-b3fdc3f76c2e</t>
+          <t>8d6b7d26-4edc-4e68-a38e-7790fd01614c</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-15T05:35:00.000Z</t>
+          <t>2024-07-17T12:18:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-aaae0f514d8543528801b3fdc3f76c2e</t>
+          <t>https://www.notion.so/8-8d6b7d264edc4e68a38e7790fd01614c</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0617fdee-2b71-4953-b626-0f55f7915fd5</t>
+          <t>aaae0f51-4d85-4352-8801-b3fdc3f76c2e</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-14T05:02:00.000Z</t>
+          <t>2024-07-15T05:35:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-0617fdee2b714953b6260f55f7915fd5</t>
+          <t>https://www.notion.so/9-aaae0f514d8543528801b3fdc3f76c2e</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>97ddd288-bcfd-4956-9e45-669354aba2f6</t>
+          <t>0617fdee-2b71-4953-b626-0f55f7915fd5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-13T15:30:00.000Z</t>
+          <t>2024-07-14T05:02:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-97ddd288bcfd49569e45669354aba2f6</t>
+          <t>https://www.notion.so/10-0617fdee2b714953b6260f55f7915fd5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0730d559-ddf2-4fe7-885c-a504f9f28a9b</t>
+          <t>97ddd288-bcfd-4956-9e45-669354aba2f6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-12T03:28:00.000Z</t>
+          <t>2024-07-13T15:30:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-0730d559ddf24fe7885ca504f9f28a9b</t>
+          <t>https://www.notion.so/11-97ddd288bcfd49569e45669354aba2f6</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>c933e0eb-dd5b-470b-aec5-41fbc163f599</t>
+          <t>0730d559-ddf2-4fe7-885c-a504f9f28a9b</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-10T03:18:00.000Z</t>
+          <t>2024-07-12T03:28:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-c933e0ebdd5b470baec541fbc163f599</t>
+          <t>https://www.notion.so/12-0730d559ddf24fe7885ca504f9f28a9b</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ccdd307e-b18b-4ed6-9da0-b300e46092f4</t>
+          <t>c933e0eb-dd5b-470b-aec5-41fbc163f599</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-09T16:05:00.000Z</t>
+          <t>2024-07-10T03:18:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-ccdd307eb18b4ed69da0b300e46092f4</t>
+          <t>https://www.notion.so/13-c933e0ebdd5b470baec541fbc163f599</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7a0e8fe1-2018-470c-95fb-b8d82312e72a</t>
+          <t>ccdd307e-b18b-4ed6-9da0-b300e46092f4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-08T14:18:00.000Z</t>
+          <t>2024-07-09T16:05:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-7a0e8fe12018470c95fbb8d82312e72a</t>
+          <t>https://www.notion.so/14-ccdd307eb18b4ed69da0b300e46092f4</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8436b303-df7c-489c-989b-06cd1c2a9683</t>
+          <t>7a0e8fe1-2018-470c-95fb-b8d82312e72a</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-07-07T12:13:00.000Z</t>
+          <t>2024-07-08T14:18:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-8436b303df7c489c989b06cd1c2a9683</t>
+          <t>https://www.notion.so/15-7a0e8fe12018470c95fbb8d82312e72a</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6442fa01-562f-4103-9b01-8aa5741e4802</t>
+          <t>8436b303-df7c-489c-989b-06cd1c2a9683</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-6442fa01562f41039b018aa5741e4802</t>
+          <t>https://www.notion.so/16-8436b303df7c489c989b06cd1c2a9683</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
+          <t>6442fa01-562f-4103-9b01-8aa5741e4802</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-07-04T10:52:00.000Z</t>
+          <t>2024-07-07T12:13:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-5395834b61a2463b847fc7d1d0bed8f6</t>
+          <t>https://www.notion.so/17-6442fa01562f41039b018aa5741e4802</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
+          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-07-02T21:32:00.000Z</t>
+          <t>2024-07-04T10:52:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-e7a195146e0b4f84851f8eeef70f2fd7</t>
+          <t>https://www.notion.so/18-5395834b61a2463b847fc7d1d0bed8f6</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,17 +4260,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
+          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-07-02T16:37:00.000Z</t>
+          <t>2024-07-02T21:32:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-4e956c66c56d48e0a94e770f2a14fcd4</t>
+          <t>https://www.notion.so/19-e7a195146e0b4f84851f8eeef70f2fd7</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
+          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-07-01T14:25:00.000Z</t>
+          <t>2024-07-02T16:37:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-d916ccf252d34410be2c48b835b28092</t>
+          <t>https://www.notion.so/20-4e956c66c56d48e0a94e770f2a14fcd4</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
+          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-30T15:05:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-fe45d7bd6e8d4e758b41a545ca37284b</t>
+          <t>https://www.notion.so/21-d916ccf252d34410be2c48b835b28092</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,17 +4857,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
+          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-29T09:35:00.000Z</t>
+          <t>2024-06-30T15:05:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-a782c44e6bd94f6f97910d56f4701144</t>
+          <t>https://www.notion.so/22-fe45d7bd6e8d4e758b41a545ca37284b</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
+          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-06-28T13:59:00.000Z</t>
+          <t>2024-06-29T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-e55892c67e5c4da388234b7400a2c426</t>
+          <t>https://www.notion.so/23-a782c44e6bd94f6f97910d56f4701144</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,17 +5255,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
+          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-06-27T16:20:00.000Z</t>
+          <t>2024-06-28T13:59:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-34c450788cfd465b9ac12c592f485be9</t>
+          <t>https://www.notion.so/24-e55892c67e5c4da388234b7400a2c426</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,17 +5454,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
+          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-06-27T13:13:00.000Z</t>
+          <t>2024-06-27T16:20:00.000Z</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-7d5475d81cf94a31817577a91b1d6821</t>
+          <t>https://www.notion.so/25-34c450788cfd465b9ac12c592f485be9</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,17 +5653,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
+          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-06-27T02:14:00.000Z</t>
+          <t>2024-06-27T13:13:00.000Z</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-392b89e1e026401083b114dc8548c520</t>
+          <t>https://www.notion.so/26-7d5475d81cf94a31817577a91b1d6821</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,17 +5852,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
+          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-06-25T09:26:00.000Z</t>
+          <t>2024-06-27T02:14:00.000Z</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-2f84e5ec07e44b24b0bcef90e98b33d5</t>
+          <t>https://www.notion.so/27-392b89e1e026401083b114dc8548c520</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
+          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-52f91de14fd84c838e4d679d7bdcc881</t>
+          <t>https://www.notion.so/28-2f84e5ec07e44b24b0bcef90e98b33d5</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
+          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-5a9e3a51f92846569ab98fd3f679bd7d</t>
+          <t>https://www.notion.so/29-52f91de14fd84c838e4d679d7bdcc881</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
+          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-4bc113ade36f4a5bb9c347f0d8fa9483</t>
+          <t>https://www.notion.so/30-5a9e3a51f92846569ab98fd3f679bd7d</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
+          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-59dbbce6813c4e81968ef894402a905c</t>
+          <t>https://www.notion.so/31-4bc113ade36f4a5bb9c347f0d8fa9483</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
+          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-5b3aba239f214c9590350a484156357e</t>
+          <t>https://www.notion.so/32-59dbbce6813c4e81968ef894402a905c</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
+          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-63f85e62af8c408e9daf5a9a6f2302fb</t>
+          <t>https://www.notion.so/33-5b3aba239f214c9590350a484156357e</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
+          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-737a5be1ee1541cb986e20a11a920b1e</t>
+          <t>https://www.notion.so/34-63f85e62af8c408e9daf5a9a6f2302fb</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
+          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
+          <t>https://www.notion.so/35-737a5be1ee1541cb986e20a11a920b1e</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
+          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-ccf9a743cf2c4219bac2a35ef088689b</t>
+          <t>https://www.notion.so/36-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
+          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-e773fe355b3f48a68cd11dafda818501</t>
+          <t>https://www.notion.so/37-ccf9a743cf2c4219bac2a35ef088689b</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
+          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-f9b3b690bbe040ebbd289e5d0336ff6f</t>
+          <t>https://www.notion.so/38-e773fe355b3f48a68cd11dafda818501</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
+          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-3e0543b78e4040d086c2d6e3118dbc93</t>
+          <t>https://www.notion.so/39-f9b3b690bbe040ebbd289e5d0336ff6f</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
+          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-53bb0ed6fdff4ac094552473d60b9dc6</t>
+          <t>https://www.notion.so/40-3e0543b78e4040d086c2d6e3118dbc93</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
+          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-63721adae1f9466b98495b6955c43a66</t>
+          <t>https://www.notion.so/41-53bb0ed6fdff4ac094552473d60b9dc6</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
+          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-772db640e3c54e5f89b5a8eb24f05039</t>
+          <t>https://www.notion.so/42-63721adae1f9466b98495b6955c43a66</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
+          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-78474f682686412fa1724b22a4f46958</t>
+          <t>https://www.notion.so/43-772db640e3c54e5f89b5a8eb24f05039</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
+          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-aa7b036608e44f5b9c2df00564f071b9</t>
+          <t>https://www.notion.so/44-78474f682686412fa1724b22a4f46958</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
+          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
+          <t>https://www.notion.so/45-aa7b036608e44f5b9c2df00564f071b9</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
+          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-b624a950bebd404f84634ddc4b83efa4</t>
+          <t>https://www.notion.so/46-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
+          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-e011e118d9a343749b4b6c5035d8d76a</t>
+          <t>https://www.notion.so/47-b624a950bebd404f84634ddc4b83efa4</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>06097b75-925b-488a-805c-597895a59893</t>
+          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-06097b75925b488a805c597895a59893</t>
+          <t>https://www.notion.so/48-e011e118d9a343749b4b6c5035d8d76a</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
+          <t>06097b75-925b-488a-805c-597895a59893</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
+          <t>https://www.notion.so/49-06097b75925b488a805c597895a59893</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
+          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-295a44f6ca9d4aa6865cbc97a63ed49f</t>
+          <t>https://www.notion.so/50-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
+          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-2fcd17a168234616b1f931622834ed19</t>
+          <t>https://www.notion.so/51-295a44f6ca9d4aa6865cbc97a63ed49f</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
+          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-39a4cf59c21f42c8ab12f22930737df2</t>
+          <t>https://www.notion.so/52-2fcd17a168234616b1f931622834ed19</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
+          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-5967f8063e81474fa3bb396088281bd4</t>
+          <t>https://www.notion.so/53-39a4cf59c21f42c8ab12f22930737df2</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
+          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-87f5309752064f52abc14594d8f162f0</t>
+          <t>https://www.notion.so/54-5967f8063e81474fa3bb396088281bd4</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
+          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-a9baec7a15a24b22b1a554d69ba8e6c2</t>
+          <t>https://www.notion.so/55-87f5309752064f52abc14594d8f162f0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
+          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-c745f5172a0044d2b498ac5356096152</t>
+          <t>https://www.notion.so/56-a9baec7a15a24b22b1a554d69ba8e6c2</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
+          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-df0fa5a9e54848fba152011b467e6375</t>
+          <t>https://www.notion.so/57-c745f5172a0044d2b498ac5356096152</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
+          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-06a83616f52f4b9a8b70d067cdaf3202</t>
+          <t>https://www.notion.so/58-df0fa5a9e54848fba152011b467e6375</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
+          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-39cce7dee402481e8ccfda8e68d43492</t>
+          <t>https://www.notion.so/59-06a83616f52f4b9a8b70d067cdaf3202</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
+          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-4bd23e8c6cd246659e5aff1d4e62af08</t>
+          <t>https://www.notion.so/60-39cce7dee402481e8ccfda8e68d43492</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
+          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-527f68635d16482fac74c9ba4d5a9143</t>
+          <t>https://www.notion.so/61-4bd23e8c6cd246659e5aff1d4e62af08</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
+          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-645a16b0358146c883c9c261d6fde312</t>
+          <t>https://www.notion.so/62-527f68635d16482fac74c9ba4d5a9143</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
+          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-6680b008e43b478e96820998b28925ff</t>
+          <t>https://www.notion.so/63-645a16b0358146c883c9c261d6fde312</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
+          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-9699d5ff48ac4bac975f130433367def</t>
+          <t>https://www.notion.so/64-6680b008e43b478e96820998b28925ff</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
+          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-d13e1708092c4557a80eff62b2a24643</t>
+          <t>https://www.notion.so/65-9699d5ff48ac4bac975f130433367def</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
+          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-ddf1942de6a34109899e2a6536bce1f8</t>
+          <t>https://www.notion.so/66-d13e1708092c4557a80eff62b2a24643</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
+          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-e3fee4c2d7a54377bb9b81a4d961c61c</t>
+          <t>https://www.notion.so/67-ddf1942de6a34109899e2a6536bce1f8</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
+          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-2af88d4623c84d95b76fc87a630b9054</t>
+          <t>https://www.notion.so/68-e3fee4c2d7a54377bb9b81a4d961c61c</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
+          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-347ec2e381c54a778fc7a8ac05867d60</t>
+          <t>https://www.notion.so/69-2af88d4623c84d95b76fc87a630b9054</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
+          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-3c5774ced68547909dcc601b516ca4af</t>
+          <t>https://www.notion.so/70-347ec2e381c54a778fc7a8ac05867d60</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
+          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-547c0b51453c4aa1a58774b6d5dd3f1a</t>
+          <t>https://www.notion.so/71-3c5774ced68547909dcc601b516ca4af</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
+          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-930db29f743a4c618e74c3b56ba5a0ce</t>
+          <t>https://www.notion.so/72-547c0b51453c4aa1a58774b6d5dd3f1a</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
+          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-b15c39801fdb479b8be4aa3d4e13a66c</t>
+          <t>https://www.notion.so/73-930db29f743a4c618e74c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
+          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
+          <t>https://www.notion.so/74-b15c39801fdb479b8be4aa3d4e13a66c</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
+          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-e3633d8d20f44321a192f5afa6e8d91f</t>
+          <t>https://www.notion.so/75-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
+          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-ea36dd0d73ea45809067c8f83143240a</t>
+          <t>https://www.notion.so/76-e3633d8d20f44321a192f5afa6e8d91f</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
+          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-0f4adb1b8c0648359cdb3d9649a277a9</t>
+          <t>https://www.notion.so/77-ea36dd0d73ea45809067c8f83143240a</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
+          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:46:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-2c3594a4e2ab4ca197daf3925855ad80</t>
+          <t>https://www.notion.so/78-0f4adb1b8c0648359cdb3d9649a277a9</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
+          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:46:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
+          <t>https://www.notion.so/79-2c3594a4e2ab4ca197daf3925855ad80</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
+          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:46:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-37d5b2f22a054c3e9cb85c9cbe744b00</t>
+          <t>https://www.notion.so/80-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
+          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-3f7c917797684c1c888528b8612459c2</t>
+          <t>https://www.notion.so/81-37d5b2f22a054c3e9cb85c9cbe744b00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
+          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-58997e574bcb431397a8497e9d964980</t>
+          <t>https://www.notion.so/82-3f7c917797684c1c888528b8612459c2</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
+          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-779e4d4596fe43f3bec345641f68e7e4</t>
+          <t>https://www.notion.so/83-58997e574bcb431397a8497e9d964980</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
+          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-92b191de589d496595a70f646c4aac1f</t>
+          <t>https://www.notion.so/84-779e4d4596fe43f3bec345641f68e7e4</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
+          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-a19da822345e48159eaa47656dadde49</t>
+          <t>https://www.notion.so/85-92b191de589d496595a70f646c4aac1f</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
+          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-ccbc7c76c65e4060947ff54950f4d1f2</t>
+          <t>https://www.notion.so/86-a19da822345e48159eaa47656dadde49</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
+          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-f461d5da5dc040d09ee04c4a3e544174</t>
+          <t>https://www.notion.so/87-ccbc7c76c65e4060947ff54950f4d1f2</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
+          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-0e78e7b3ef2949468ad9c23a53b4da6c</t>
+          <t>https://www.notion.so/88-f461d5da5dc040d09ee04c4a3e544174</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
+          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-0efedcf0d5a1427b82ae489389a66625</t>
+          <t>https://www.notion.so/89-0e78e7b3ef2949468ad9c23a53b4da6c</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
+          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-2d3c378218cb4aaab48ee6efa4eb463f</t>
+          <t>https://www.notion.so/90-0efedcf0d5a1427b82ae489389a66625</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
+          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-43d05f1f3f764c35a56a0db0a57a724c</t>
+          <t>https://www.notion.so/91-2d3c378218cb4aaab48ee6efa4eb463f</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
+          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-777d34f48e434c2fb895bae3df7c2aad</t>
+          <t>https://www.notion.so/92-43d05f1f3f764c35a56a0db0a57a724c</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
+          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-b12efaee4b914d6e8a7f291ac8902ce0</t>
+          <t>https://www.notion.so/93-777d34f48e434c2fb895bae3df7c2aad</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
+          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-4ba858826e204c8cb5e0db4eb7dcb148</t>
+          <t>https://www.notion.so/94-b12efaee4b914d6e8a7f291ac8902ce0</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
+          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-516e5788099d4d99b4f94185ccacf13a</t>
+          <t>https://www.notion.so/95-4ba858826e204c8cb5e0db4eb7dcb148</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7068474c-c815-4317-af38-9720c3766e71</t>
+          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-7068474cc8154317af389720c3766e71</t>
+          <t>https://www.notion.so/96-516e5788099d4d99b4f94185ccacf13a</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
+          <t>7068474c-c815-4317-af38-9720c3766e71</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-73b1a91ae40b48a098c64b8294f410c3</t>
+          <t>https://www.notion.so/97-7068474cc8154317af389720c3766e71</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
+          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-97f9cfe2e9234ccfb370c71296ca2433</t>
+          <t>https://www.notion.so/98-73b1a91ae40b48a098c64b8294f410c3</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
+          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-a4751e1dad9c4affb14aa693c3cdb64d</t>
+          <t>https://www.notion.so/99-97f9cfe2e9234ccfb370c71296ca2433</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
+          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-552383fe1f304ccaa812498242b4a1ee</t>
+          <t>https://www.notion.so/100-a4751e1dad9c4affb14aa693c3cdb64d</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
+          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-624858dc7da1484dae4b00213655e72e</t>
+          <t>https://www.notion.so/101-552383fe1f304ccaa812498242b4a1ee</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
+          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-6642a940268347538a561f7597e51291</t>
+          <t>https://www.notion.so/102-624858dc7da1484dae4b00213655e72e</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
+          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-76a29ccbef984e5baca434051f89c562</t>
+          <t>https://www.notion.so/103-6642a940268347538a561f7597e51291</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
+          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-8f6acd2f75f84a60a7612f9c866fd510</t>
+          <t>https://www.notion.so/104-76a29ccbef984e5baca434051f89c562</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
+          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-a374f898aee846e7912646fcf92dad7e</t>
+          <t>https://www.notion.so/105-8f6acd2f75f84a60a7612f9c866fd510</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
+          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-c0bcf57b8e35442fa9aba57763c9e325</t>
+          <t>https://www.notion.so/106-a374f898aee846e7912646fcf92dad7e</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
+          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-ca7f48f1acec4d18bf23afe373dad0a1</t>
+          <t>https://www.notion.so/107-c0bcf57b8e35442fa9aba57763c9e325</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
+          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-eeefb431b3e140238150ed014fff47f7</t>
+          <t>https://www.notion.so/108-ca7f48f1acec4d18bf23afe373dad0a1</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
+          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-f225669da15542ef8cdb31fd7a530ab8</t>
+          <t>https://www.notion.so/109-eeefb431b3e140238150ed014fff47f7</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
+          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-34b97b8c285b4d76bf9d1568f645d6c5</t>
+          <t>https://www.notion.so/110-f225669da15542ef8cdb31fd7a530ab8</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>5a18478d-a522-45c2-9e43-032974690527</t>
+          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-5a18478da52245c29e43032974690527</t>
+          <t>https://www.notion.so/111-34b97b8c285b4d76bf9d1568f645d6c5</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
+          <t>5a18478d-a522-45c2-9e43-032974690527</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-650732c65fad4de7a252544d44b48650</t>
+          <t>https://www.notion.so/112-5a18478da52245c29e43032974690527</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
+          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-844ddd9f02b64958b1c89b53ce84cab6</t>
+          <t>https://www.notion.so/113-650732c65fad4de7a252544d44b48650</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -23165,7 +23165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
+          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
+          <t>https://www.notion.so/114-844ddd9f02b64958b1c89b53ce84cab6</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -23364,7 +23364,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
+          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-90bebc722e01463d8665522d21d07808</t>
+          <t>https://www.notion.so/115-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
+          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.notion.so/116-a675a1975fde48f0bd3da055d136af68</t>
+          <t>https://www.notion.so/116-90bebc722e01463d8665522d21d07808</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
+          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:43:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.notion.so/117-bdf09569481c49b0a4e33ea1e03dd723</t>
+          <t>https://www.notion.so/117-a675a1975fde48f0bd3da055d136af68</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
+          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:43:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.notion.so/118-ec32e03e445d4553bb06b880d2cd2412</t>
+          <t>https://www.notion.so/118-bdf09569481c49b0a4e33ea1e03dd723</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
+          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:43:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.notion.so/119-f8405cf362b34ea19fa06440f290bed6</t>
+          <t>https://www.notion.so/119-ec32e03e445d4553bb06b880d2cd2412</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -24359,7 +24359,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
+          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:43:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24382,7 +24382,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.notion.so/120-1a86e25a53c646128e08b97c9dba0ec1</t>
+          <t>https://www.notion.so/120-f8405cf362b34ea19fa06440f290bed6</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -24558,7 +24558,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
+          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:43:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.notion.so/121-1f504c07c08148d59f0b4f793bd71da1</t>
+          <t>https://www.notion.so/121-1a86e25a53c646128e08b97c9dba0ec1</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -24757,7 +24757,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
+          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:43:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.notion.so/122-728ff8a560cc4dcf9226efbea76ba060</t>
+          <t>https://www.notion.so/122-1f504c07c08148d59f0b4f793bd71da1</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
+          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:43:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -24979,7 +24979,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.notion.so/123-7a7ae9a01b1640f1baf46d11089719e6</t>
+          <t>https://www.notion.so/123-728ff8a560cc4dcf9226efbea76ba060</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
+          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -25165,7 +25165,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:43:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.notion.so/124-88d14c183b0140549f4e8500ffac3be7</t>
+          <t>https://www.notion.so/124-7a7ae9a01b1640f1baf46d11089719e6</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -25354,7 +25354,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
+          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:43:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25377,7 +25377,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.notion.so/125-b6645ed00f114a66bd0b0121269a6719</t>
+          <t>https://www.notion.so/125-88d14c183b0140549f4e8500ffac3be7</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>d68c8181-6b8f-47d1-a5ef-16898d85d474</t>
+          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:43:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -25576,7 +25576,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.notion.so/126-d68c81816b8f47d1a5ef16898d85d474</t>
+          <t>https://www.notion.so/126-b6645ed00f114a66bd0b0121269a6719</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -25752,7 +25752,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>0953f482-0768-4567-b934-8895a4aad9fe</t>
+          <t>d68c8181-6b8f-47d1-a5ef-16898d85d474</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -25762,7 +25762,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:43:00.000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -25775,7 +25775,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.notion.so/127-0953f48207684567b9348895a4aad9fe</t>
+          <t>https://www.notion.so/127-d68c81816b8f47d1a5ef16898d85d474</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>3e0faaad-22aa-462b-91d2-862efc98e0d0</t>
+          <t>0953f482-0768-4567-b934-8895a4aad9fe</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -25961,7 +25961,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:43:00.000Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -25974,7 +25974,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.notion.so/128-3e0faaad22aa462b91d2862efc98e0d0</t>
+          <t>https://www.notion.so/128-0953f48207684567b9348895a4aad9fe</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -26139,6 +26139,205 @@
       <c r="AU129" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '128', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '128', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>3e0faaad-22aa-462b-91d2-862efc98e0d0</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2024-06-25T09:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2024-07-21T16:43:00.000Z</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/129-3e0faaad22aa462b91d2862efc98e0d0</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>f209a418-4aa2-4b65-9cfc-4a94b6af86b0</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>IynB</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S130" t="n">
+        <v>945000</v>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>PSic</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W130" t="n">
+        <v>34055000</v>
+      </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>SvP%5E</t>
+        </is>
+      </c>
+      <c r="Y130" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z130" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB130" t="inlineStr">
+        <is>
+          <t>V%3CuY</t>
+        </is>
+      </c>
+      <c r="AC130" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AD130" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="AE130" t="inlineStr">
+        <is>
+          <t>%5Be%3DQ</t>
+        </is>
+      </c>
+      <c r="AF130" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AG130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH130" t="inlineStr">
+        <is>
+          <t>ccio</t>
+        </is>
+      </c>
+      <c r="AI130" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AJ130" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="AK130" t="inlineStr"/>
+      <c r="AL130" t="inlineStr"/>
+      <c r="AM130" t="inlineStr">
+        <is>
+          <t>iRq%5E</t>
+        </is>
+      </c>
+      <c r="AN130" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP130" t="inlineStr">
+        <is>
+          <t>oNis</t>
+        </is>
+      </c>
+      <c r="AQ130" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR130" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="AS130" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT130" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU130" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '129', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '129', 'href': None}]</t>
         </is>
       </c>
     </row>
